--- a/pcb/datasheets/TPS552872/7673.TPS552872-Design Calculation Tool-V1.0.xlsx
+++ b/pcb/datasheets/TPS552872/7673.TPS552872-Design Calculation Tool-V1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52bea68e6fe8af7b/Documents/GitHub/ESPHome-Parking-Assistant/pcb/datasheets/TPS552872/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{928A0F39-D9DB-4DD8-B148-25104C4FD18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33E2C861-E51D-48EF-A22D-2108C9B80D65}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{928A0F39-D9DB-4DD8-B148-25104C4FD18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2089CE05-F306-4222-BAB8-3655D011EA46}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WSaJhr55ObKksakSdGGLskb+jMCKT8LlkYqsCI4Fm2X8nBMcOaDdHXv6FcJ20fT7EuEobV26LO6PC7AR3zsfXQ==" workbookSaltValue="FVRDyD+8FLoR9EeS2JVFLA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1944,6 +1944,144 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
@@ -1988,149 +2126,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -2462,127 +2462,127 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>48.904714453049195</c:v>
+                  <c:v>49.174073802470545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.399654216588964</c:v>
+                  <c:v>46.773216388390779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.72340984885718</c:v>
+                  <c:v>44.213911156342299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.869213971411881</c:v>
+                  <c:v>41.471060923342236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.85836786362448</c:v>
+                  <c:v>38.539803449048925</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.741559195161088</c:v>
+                  <c:v>35.44363778713501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.590375310071497</c:v>
+                  <c:v>32.234282547069249</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.482200248025244</c:v>
+                  <c:v>28.983306161187372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.483242884408096</c:v>
+                  <c:v>25.7693441843765</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.634366566765635</c:v>
+                  <c:v>22.664215409231648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.944507846984425</c:v>
+                  <c:v>19.720013988942057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.394288215405236</c:v>
+                  <c:v>16.960432299498738</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.947398302463959</c:v>
+                  <c:v>14.380221329875507</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.564178742225188</c:v>
+                  <c:v>11.953108675769414</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.212908353106656</c:v>
+                  <c:v>9.6435173679531019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.87624406159307</c:v>
+                  <c:v>7.4164769354208397</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.5507500714960996</c:v>
+                  <c:v>5.2429888605330524</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2391751349418207</c:v>
+                  <c:v>3.100900464362911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93952541716349369</c:v>
+                  <c:v>0.97250703405826311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.3628718359166001</c:v>
+                  <c:v>-1.1595580655743785</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.6977175935929356</c:v>
+                  <c:v>-3.3168249726064367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-6.1085104213188988</c:v>
+                  <c:v>-5.5295070051069573</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.6503719903890932</c:v>
+                  <c:v>-7.8413093316863876</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-11.387628429448265</c:v>
+                  <c:v>-10.313906099761077</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-14.390655937263885</c:v>
+                  <c:v>-13.02828684556612</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-17.73175969472895</c:v>
+                  <c:v>-16.07913773655272</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-21.480470480957461</c:v>
+                  <c:v>-19.561758611629344</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-25.698760994604452</c:v>
+                  <c:v>-23.557105433623359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-30.435821070415077</c:v>
+                  <c:v>-28.12143836566954</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-35.721041281418721</c:v>
+                  <c:v>-33.280929382917378</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41.555691775434177</c:v>
+                  <c:v>-39.028210085550391</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-47.907996848202977</c:v>
+                  <c:v>-45.32175892346163</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-54.717108493065098</c:v>
+                  <c:v>-52.092228319134243</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-61.906375430025804</c:v>
+                  <c:v>-59.25645435404666</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-69.400282263738802</c:v>
+                  <c:v>-66.734289776780685</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-77.138282240432574</c:v>
+                  <c:v>-74.462038820022556</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-85.082242772040289</c:v>
+                  <c:v>-82.399486816101117</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-93.217819545257612</c:v>
+                  <c:v>-90.530936530009328</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-101.55099706913542</c:v>
+                  <c:v>-98.86150287842888</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-110.10026684526397</c:v>
+                  <c:v>-107.4091222468322</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-118.88502528498367</c:v>
+                  <c:v>-116.19283820558778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,127 +2756,127 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>69.555935297683561</c:v>
+                  <c:v>71.563170263223356</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.487527394962314</c:v>
+                  <c:v>67.489751528847719</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.439403881567038</c:v>
+                  <c:v>63.175194092894387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.780223166150087</c:v>
+                  <c:v>58.909681205027915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.913051606896587</c:v>
+                  <c:v>55.084369932538365</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.169715002131646</c:v>
+                  <c:v>52.115220992137438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.714775432425924</c:v>
+                  <c:v>50.343475671981089</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.494400562933642</c:v>
+                  <c:v>49.953622770920234</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.243299872598598</c:v>
+                  <c:v>50.931056314138736</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.548996729089225</c:v>
+                  <c:v>53.060550416638904</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.95685769748944</c:v>
+                  <c:v>55.965507701581423</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.07715125099719</c:v>
+                  <c:v>59.187370436357682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.652621191996658</c:v>
+                  <c:v>62.284101174758959</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.570690967799393</c:v>
+                  <c:v>64.906938601080327</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64.829288672401219</c:v>
+                  <c:v>66.826867104544775</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64.471360993566265</c:v>
+                  <c:v>67.91480972805789</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.507324590886725</c:v>
+                  <c:v>68.098451444772309</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.857490773754307</c:v>
+                  <c:v>67.316637354336521</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59.343496445901785</c:v>
+                  <c:v>65.484025045530871</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55.724531508041323</c:v>
+                  <c:v>62.47153648448819</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.746290956256487</c:v>
+                  <c:v>58.101405457937631</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.17867930880675</c:v>
+                  <c:v>52.153043309747972</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.841326919241467</c:v>
+                  <c:v>44.381383557194752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25.62474997431822</c:v>
+                  <c:v>34.556680423626602</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13.509674184024632</c:v>
+                  <c:v>22.531248236024538</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.41849208040956398</c:v>
+                  <c:v>8.3168115664119142</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-15.962834781642982</c:v>
+                  <c:v>-7.868018187844001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-32.814621314943402</c:v>
+                  <c:v>-25.609538568759454</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-50.555999528840566</c:v>
+                  <c:v>-44.353454994288477</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-68.671550073783379</c:v>
+                  <c:v>-63.466652771067309</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-86.589951411584721</c:v>
+                  <c:v>-82.301758630895037</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-103.76854375460653</c:v>
+                  <c:v>-100.28004326980826</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-119.7967671886085</c:v>
+                  <c:v>-116.98273761102263</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-134.4692807606441</c:v>
+                  <c:v>-132.21186351209815</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-147.7956132481616</c:v>
+                  <c:v>-145.99118465459694</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-159.95203366218328</c:v>
+                  <c:v>-158.51299945461651</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-171.20475021824325</c:v>
+                  <c:v>-170.05879488352855</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-181.82967333897193</c:v>
+                  <c:v>-180.91795386140609</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-192.04059190586793</c:v>
+                  <c:v>-191.31565620381866</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-201.93349990464026</c:v>
+                  <c:v>-201.35729589941158</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-211.46186406494638</c:v>
+                  <c:v>-211.00398475802277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3519,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -3564,63 +3564,63 @@
     </row>
     <row r="2" spans="1:17" ht="16" thickTop="1">
       <c r="A2" s="48"/>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="143" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
       <c r="Q2" s="50"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="48"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="146" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="148"/>
       <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="48"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-      <c r="P4" s="150"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="148"/>
       <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17">
@@ -3644,36 +3644,36 @@
     </row>
     <row r="6" spans="1:17" ht="13.4" customHeight="1">
       <c r="A6" s="48"/>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="149" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
-      <c r="P6" s="153"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="151"/>
       <c r="Q6" s="50"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="48"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
       <c r="M7" s="54"/>
@@ -3778,29 +3778,29 @@
       <c r="E12" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="119"/>
-      <c r="P12" s="120"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="155"/>
       <c r="Q12" s="50"/>
     </row>
     <row r="13" spans="1:17" ht="13">
       <c r="A13" s="48"/>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
       <c r="F13" s="64"/>
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
@@ -4285,19 +4285,19 @@
         <v>9</v>
       </c>
       <c r="E31" s="69"/>
-      <c r="F31" s="126" t="s">
+      <c r="F31" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="127"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="161"/>
+      <c r="I31" s="161"/>
+      <c r="J31" s="161"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="162"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="25.5">
@@ -4357,20 +4357,20 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="48"/>
-      <c r="B34" s="128" t="s">
+      <c r="B34" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="139">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="D34" s="141" t="s">
+      <c r="C34" s="128">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="D34" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="134" t="s">
+      <c r="E34" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="154"/>
-      <c r="G34" s="137"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="117"/>
       <c r="H34" s="103"/>
       <c r="I34" s="103"/>
       <c r="J34" s="103"/>
@@ -4379,17 +4379,17 @@
       <c r="M34" s="103"/>
       <c r="N34" s="103"/>
       <c r="O34" s="103"/>
-      <c r="P34" s="138"/>
+      <c r="P34" s="118"/>
       <c r="Q34" s="114"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="48"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="137"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="117"/>
       <c r="H35" s="103"/>
       <c r="I35" s="104"/>
       <c r="J35" s="105"/>
@@ -4398,25 +4398,25 @@
       <c r="M35" s="105"/>
       <c r="N35" s="105"/>
       <c r="O35" s="105"/>
-      <c r="P35" s="138"/>
+      <c r="P35" s="118"/>
       <c r="Q35" s="114"/>
     </row>
     <row r="36" spans="1:17" ht="15.75" customHeight="1">
       <c r="A36" s="48"/>
-      <c r="B36" s="128" t="s">
+      <c r="B36" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="139">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="D36" s="141" t="s">
+      <c r="C36" s="128">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="D36" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="134" t="s">
+      <c r="E36" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="154"/>
-      <c r="G36" s="137"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="117"/>
       <c r="H36" s="103"/>
       <c r="I36" s="103"/>
       <c r="J36" s="103"/>
@@ -4425,17 +4425,17 @@
       <c r="M36" s="103"/>
       <c r="N36" s="103"/>
       <c r="O36" s="103"/>
-      <c r="P36" s="138"/>
+      <c r="P36" s="118"/>
       <c r="Q36" s="114"/>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="48"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="137"/>
+      <c r="B37" s="120"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="117"/>
       <c r="H37" s="103"/>
       <c r="I37" s="103"/>
       <c r="J37" s="103"/>
@@ -4444,26 +4444,25 @@
       <c r="M37" s="103"/>
       <c r="N37" s="105"/>
       <c r="O37" s="105"/>
-      <c r="P37" s="138"/>
+      <c r="P37" s="118"/>
       <c r="Q37" s="114"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="48"/>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="157">
-        <f>0.16+0.025</f>
+      <c r="C38" s="139">
         <v>0.185</v>
       </c>
-      <c r="D38" s="141" t="s">
+      <c r="D38" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="134" t="s">
+      <c r="E38" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="154"/>
-      <c r="G38" s="137"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="117"/>
       <c r="H38" s="103"/>
       <c r="I38" s="103"/>
       <c r="J38" s="103"/>
@@ -4472,17 +4471,17 @@
       <c r="M38" s="105"/>
       <c r="N38" s="105"/>
       <c r="O38" s="105"/>
-      <c r="P38" s="138"/>
+      <c r="P38" s="118"/>
       <c r="Q38" s="114"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="48"/>
-      <c r="B39" s="129"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="137"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="117"/>
       <c r="H39" s="106"/>
       <c r="I39" s="107"/>
       <c r="J39" s="105"/>
@@ -4491,25 +4490,25 @@
       <c r="M39" s="105"/>
       <c r="N39" s="105"/>
       <c r="O39" s="105"/>
-      <c r="P39" s="138"/>
+      <c r="P39" s="118"/>
       <c r="Q39" s="114"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="48"/>
-      <c r="B40" s="128" t="s">
+      <c r="B40" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="155">
+      <c r="C40" s="137">
         <v>0.05</v>
       </c>
-      <c r="D40" s="141" t="s">
+      <c r="D40" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="134" t="s">
+      <c r="E40" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="137"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="117"/>
       <c r="H40" s="103"/>
       <c r="I40" s="103"/>
       <c r="J40" s="105"/>
@@ -4518,17 +4517,17 @@
       <c r="M40" s="103"/>
       <c r="N40" s="105"/>
       <c r="O40" s="105"/>
-      <c r="P40" s="138"/>
+      <c r="P40" s="118"/>
       <c r="Q40" s="114"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="48"/>
-      <c r="B41" s="129"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="137"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="117"/>
       <c r="H41" s="103"/>
       <c r="I41" s="103"/>
       <c r="J41" s="105"/>
@@ -4537,26 +4536,26 @@
       <c r="M41" s="103"/>
       <c r="N41" s="105"/>
       <c r="O41" s="105"/>
-      <c r="P41" s="138"/>
+      <c r="P41" s="118"/>
       <c r="Q41" s="114"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="48"/>
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="161">
+      <c r="C42" s="134">
         <f>Ioutmax*0.25/dVinpkpk/fsw</f>
         <v>1.8610421836228288E-5</v>
       </c>
-      <c r="D42" s="141" t="s">
+      <c r="D42" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="134" t="s">
+      <c r="E42" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="154"/>
-      <c r="G42" s="137"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="117"/>
       <c r="H42" s="103"/>
       <c r="I42" s="103"/>
       <c r="J42" s="103"/>
@@ -4565,17 +4564,17 @@
       <c r="M42" s="103"/>
       <c r="N42" s="105"/>
       <c r="O42" s="105"/>
-      <c r="P42" s="138"/>
+      <c r="P42" s="118"/>
       <c r="Q42" s="114"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="48"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="137"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="117"/>
       <c r="H43" s="103"/>
       <c r="I43" s="103"/>
       <c r="J43" s="103"/>
@@ -4584,25 +4583,25 @@
       <c r="M43" s="103"/>
       <c r="N43" s="105"/>
       <c r="O43" s="105"/>
-      <c r="P43" s="138"/>
+      <c r="P43" s="118"/>
       <c r="Q43" s="114"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="48"/>
-      <c r="B44" s="128" t="s">
+      <c r="B44" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="139">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="D44" s="141" t="s">
+      <c r="C44" s="128">
+        <v>2.3000000000000001E-8</v>
+      </c>
+      <c r="D44" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="134" t="s">
+      <c r="E44" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="136"/>
-      <c r="G44" s="137"/>
+      <c r="F44" s="127"/>
+      <c r="G44" s="117"/>
       <c r="H44" s="103"/>
       <c r="I44" s="103"/>
       <c r="J44" s="103"/>
@@ -4611,17 +4610,17 @@
       <c r="M44" s="103"/>
       <c r="N44" s="105"/>
       <c r="O44" s="105"/>
-      <c r="P44" s="138"/>
+      <c r="P44" s="118"/>
       <c r="Q44" s="114"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="48"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="137"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="126"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="117"/>
       <c r="H45" s="103"/>
       <c r="I45" s="103"/>
       <c r="J45" s="103"/>
@@ -4630,23 +4629,23 @@
       <c r="M45" s="105"/>
       <c r="N45" s="105"/>
       <c r="O45" s="105"/>
-      <c r="P45" s="138"/>
+      <c r="P45" s="118"/>
       <c r="Q45" s="114"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="48"/>
-      <c r="B46" s="128" t="s">
+      <c r="B46" s="119" t="s">
         <v>205</v>
       </c>
-      <c r="C46" s="130">
+      <c r="C46" s="163">
         <v>0.95</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="134" t="s">
+      <c r="D46" s="123"/>
+      <c r="E46" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="136"/>
-      <c r="G46" s="137"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="117"/>
       <c r="H46" s="103"/>
       <c r="I46" s="103"/>
       <c r="J46" s="103"/>
@@ -4655,17 +4654,17 @@
       <c r="M46" s="103"/>
       <c r="N46" s="103"/>
       <c r="O46" s="103"/>
-      <c r="P46" s="138"/>
+      <c r="P46" s="118"/>
       <c r="Q46" s="114"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="48"/>
-      <c r="B47" s="129"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="137"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="127"/>
+      <c r="G47" s="117"/>
       <c r="H47" s="108"/>
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
@@ -4674,23 +4673,23 @@
       <c r="M47" s="109"/>
       <c r="N47" s="110"/>
       <c r="O47" s="109"/>
-      <c r="P47" s="138"/>
+      <c r="P47" s="118"/>
       <c r="Q47" s="114"/>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="48"/>
-      <c r="B48" s="128" t="s">
+      <c r="B48" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="163">
+      <c r="C48" s="121">
         <v>0.5</v>
       </c>
-      <c r="D48" s="132"/>
-      <c r="E48" s="134" t="s">
+      <c r="D48" s="123"/>
+      <c r="E48" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="F48" s="136"/>
-      <c r="G48" s="137"/>
+      <c r="F48" s="127"/>
+      <c r="G48" s="117"/>
       <c r="H48" s="105"/>
       <c r="I48" s="105"/>
       <c r="J48" s="105"/>
@@ -4699,17 +4698,17 @@
       <c r="M48" s="103"/>
       <c r="N48" s="105"/>
       <c r="O48" s="105"/>
-      <c r="P48" s="138"/>
+      <c r="P48" s="118"/>
       <c r="Q48" s="114"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="48"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="137"/>
+      <c r="B49" s="120"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="117"/>
       <c r="H49" s="105"/>
       <c r="I49" s="105"/>
       <c r="J49" s="105"/>
@@ -4718,7 +4717,7 @@
       <c r="M49" s="103"/>
       <c r="N49" s="105"/>
       <c r="O49" s="105"/>
-      <c r="P49" s="138"/>
+      <c r="P49" s="118"/>
       <c r="Q49" s="114"/>
     </row>
     <row r="50" spans="1:17" ht="25">
@@ -4968,25 +4967,25 @@
     </row>
     <row r="59" spans="1:17" ht="13">
       <c r="A59" s="48"/>
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="122" t="s">
+      <c r="C59" s="158"/>
+      <c r="D59" s="158"/>
+      <c r="E59" s="158"/>
+      <c r="F59" s="157" t="s">
         <v>150</v>
       </c>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="123"/>
-      <c r="K59" s="123"/>
-      <c r="L59" s="123"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="123"/>
-      <c r="O59" s="123"/>
-      <c r="P59" s="124"/>
+      <c r="G59" s="158"/>
+      <c r="H59" s="158"/>
+      <c r="I59" s="158"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="158"/>
+      <c r="L59" s="158"/>
+      <c r="M59" s="158"/>
+      <c r="N59" s="158"/>
+      <c r="O59" s="158"/>
+      <c r="P59" s="159"/>
       <c r="Q59" s="50"/>
     </row>
     <row r="60" spans="1:17">
@@ -5000,7 +4999,7 @@
       <c r="D60" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="117" t="s">
+      <c r="E60" s="152" t="s">
         <v>184</v>
       </c>
       <c r="F60" s="54"/>
@@ -5028,7 +5027,7 @@
       <c r="D61" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="118"/>
+      <c r="E61" s="153"/>
       <c r="F61" s="54"/>
       <c r="G61" s="54"/>
       <c r="H61" s="54"/>
@@ -5103,7 +5102,7 @@
       </c>
       <c r="C64" s="31">
         <f>IF((Op_mode="Buck"), Ioutmax/2/PI()/Vout_LP/(Cout_c+Cout_e), Ioutmax/PI()/Vout_LP/(Cout_c+Cout_e))</f>
-        <v>180.17540727384377</v>
+        <v>215.07424742148015</v>
       </c>
       <c r="D64" s="68" t="s">
         <v>6</v>
@@ -5159,7 +5158,7 @@
       </c>
       <c r="C66" s="31">
         <f>1/2/PI()/Cout_e/ESR</f>
-        <v>3910.4408622087312</v>
+        <v>4551.8359242641309</v>
       </c>
       <c r="D66" s="68" t="s">
         <v>6</v>
@@ -5186,7 +5185,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="22">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D67" s="68" t="s">
         <v>6</v>
@@ -5241,7 +5240,7 @@
       </c>
       <c r="C69" s="25">
         <f>IF(Op_mode="Boost", 2*PI()*fco*(Cout_c+Cout_e)*Vout/1.129/gm_PS/(eff*Vin_LP/Vout_LP)/gm_EA, 2*PI()*fco*(Cout_c+Cout_e)*Vout/1.129/gm_PS/gm_EA)</f>
-        <v>17641.094358840975</v>
+        <v>18473.22145123914</v>
       </c>
       <c r="D69" s="68" t="s">
         <v>28</v>
@@ -5266,7 +5265,7 @@
         <v>110</v>
       </c>
       <c r="C70" s="22">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="D70" s="68" t="s">
         <v>28</v>
@@ -5294,7 +5293,7 @@
       </c>
       <c r="C71" s="39">
         <f>1/(2*PI()*(fco/10)*(Rcomp+2000))</f>
-        <v>8.289319952702883E-9</v>
+        <v>9.3620554759938447E-9</v>
       </c>
       <c r="D71" s="68" t="s">
         <v>9</v>
@@ -5347,7 +5346,7 @@
       </c>
       <c r="C73" s="25">
         <f>1/2/PI()/(Rcomp+2000)/Ccomp</f>
-        <v>663.14559621623062</v>
+        <v>936.20554759938443</v>
       </c>
       <c r="D73" s="68" t="s">
         <v>6</v>
@@ -5375,7 +5374,7 @@
       </c>
       <c r="C74" s="44">
         <f>Ccomp*(IF(fzRHP&gt;fz_ESR, (Cout_e*ESR/Rcomp)/(Ccomp-Cout_e*ESR/Rcomp), (1/2/PI()/fzRHP/Rcomp)/(Ccomp-1/2/PI()/fzRHP/Rcomp)))</f>
-        <v>2.2699386503067485E-9</v>
+        <v>3.0395097144347367E-9</v>
       </c>
       <c r="D74" s="68" t="s">
         <v>9</v>
@@ -5428,7 +5427,7 @@
       </c>
       <c r="C76" s="26">
         <f>1/2/PI()/(Rcomp+2000)/(Ccomp*(Cp+0.000000000003)/(Ccomp+Cp+0.000000000003))</f>
-        <v>3116.5144316443861</v>
+        <v>4399.7850799685457</v>
       </c>
       <c r="D76" s="78" t="s">
         <v>6</v>
@@ -5451,12 +5450,12 @@
     </row>
     <row r="77" spans="1:17" ht="13">
       <c r="A77" s="75"/>
-      <c r="B77" s="121" t="s">
+      <c r="B77" s="156" t="s">
         <v>209</v>
       </c>
-      <c r="C77" s="119"/>
-      <c r="D77" s="119"/>
-      <c r="E77" s="119"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="154"/>
       <c r="F77" s="54"/>
       <c r="G77" s="54"/>
       <c r="H77" s="54"/>
@@ -5476,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D78" s="79" t="s">
         <v>3</v>
@@ -5504,7 +5503,7 @@
       </c>
       <c r="C79" s="46">
         <f>IF(Vin_eff&lt;Vout, ((Ioutmax/(Vin_eff/Vout)/eff)^2+1/12*(Vin_eff/L*(1-Vin_eff/Vout)/fsw)^2)^0.5, ((Ioutmax^2+1/12*(Vout/L*(1-Vout/Vin_eff)/fsw)^2)^0.5))</f>
-        <v>1.5644806866762804</v>
+        <v>1.5</v>
       </c>
       <c r="D79" s="68" t="s">
         <v>4</v>
@@ -5532,7 +5531,7 @@
       </c>
       <c r="C80" s="46">
         <f>IF(Vin_eff&lt;Vout, (Ioutmax/(Vin_eff/Vout)/eff+(1/2*Vin_eff/L*(1-Vin_eff/Vout)/fsw)), Ioutmax+1/2*(Vout*(1-Vout/Vin_eff)/L/fsw))</f>
-        <v>2.2699347095366313</v>
+        <v>1.5</v>
       </c>
       <c r="D80" s="68" t="s">
         <v>4</v>
@@ -5560,7 +5559,7 @@
       </c>
       <c r="C81" s="46">
         <f>IF(Vin_eff&lt;Vout, (Ioutmax/(Vin_eff/Vout)/eff-(1/2*Vin_eff/L*(1-Vin_eff/Vout)/fsw)),Ioutmax-1/2*(Vout*(1-Vout/Vin_eff)/L/fsw))</f>
-        <v>0.73006529046336888</v>
+        <v>1.5</v>
       </c>
       <c r="D81" s="68" t="s">
         <v>4</v>
@@ -6128,7 +6127,7 @@
       </c>
       <c r="C102" s="25">
         <f>Rpcb*(ILrms^2)</f>
-        <v>4.8951996379661713</v>
+        <v>4.5</v>
       </c>
       <c r="D102" s="68" t="s">
         <v>10</v>
@@ -6156,7 +6155,7 @@
       </c>
       <c r="C103" s="25">
         <f>(ILrms)^2*DCR*1000</f>
-        <v>173.77958714779908</v>
+        <v>159.74999999999997</v>
       </c>
       <c r="D103" s="68" t="s">
         <v>10</v>
@@ -6211,7 +6210,7 @@
       </c>
       <c r="C105" s="25">
         <f>IF(Vin_eff&lt;Vout, ((0.001+0.00000001*fsw)*IF(AND(Vout&gt;Vin_eff, Vin_eff&gt;6.2), Vin_eff, Vout)+(1-Vin_eff/Vout)*ILrms^2*BST_LS_Rdson+(Vin_eff/Vout)*ILrms^2*BST_HS_Rdson+1/2*ILpeak*(Vout+BST_HS_Vd)*BST_LS_rise_time*fsw+1/2*ILvalley*(Vout+BST_HS_Vd)*BST_LS_fall_time*fsw+1/2*0.0000000005*(Vout+BST_HS_Vd)*(Vout+BST_HS_Vd)*fsw+(ILpeak+ILvalley)*BST_HS_Vd*BST_HS_dead_time*fsw+Vout*0.000000005*fsw)*1000+ (ILrms)^2*(BUCK_HS_Rdson)*1000, ((0.001+(BUCK_HS_Qg+BUCK_LS_Qg)*fsw)*IF(AND(Vin_eff&gt;Vout, Vout&gt;6.2), Vout, Vin_eff)+BST_HS_Rdson*ILrms^2)*1000+ ((Vout/Vin_eff)*ILrms^2*BUCK_HS_Rdson+1/2*ILpeak*(Vin_eff+BUCK_LS_Vd)*BUCK_HS_fall_time*fsw+1/2*ILvalley*(Vin_eff+BUCK_LS_Vd)*BUCK_HS_rise_time*fsw+1/2*BUCK_HS_Coss*(Vin_eff+BUCK_LS_Vd)*(Vin_eff+BUCK_LS_Vd)*fsw)*1000+ ((1-Vout/Vin_eff)*ILrms^2*BUCK_LS_Rdson+(ILpeak+ILvalley)*BUCK_LS_Vd*BUCK_LS_dead_time*fsw+Vin_eff*BUCK_LS_Qrr*fsw)*1000)</f>
-        <v>271.56808014418181</v>
+        <v>145.83199200000001</v>
       </c>
       <c r="D105" s="68" t="s">
         <v>10</v>
@@ -6305,15 +6304,15 @@
       </c>
       <c r="F108" s="96">
         <f>ESR*Cout_c*Cout_e/(Cout_c+Cout_e)</f>
-        <v>6.911320754716982E-6</v>
+        <v>5.1974999999999998E-6</v>
       </c>
       <c r="G108" s="96">
         <f>(fsw*(Cout_e/(Cout_c+Cout_e))^2*(Ioutmax^2*(Vout-Vin_eff)/Vout/fsw+2*Ioutmax*((1-EXP((-Vin_eff/Vout)/tou/fsw))/(1-EXP(-1/tou/fsw))*(ILpeak+ILvalley)/2*tou*(EXP(-1/tou*(1-Vin_eff/Vout)/fsw)-1))-((1-EXP((-Vin_eff/Vout)/tou/fsw))/(1-EXP(-1/tou/fsw))*(ILpeak+ILvalley)/2)^2*tou/2*(EXP(-2/tou*(1-Vin_eff/Vout)/fsw)-1)))</f>
-        <v>-5.0866775490673382</v>
+        <v>0</v>
       </c>
       <c r="H108" s="96">
         <f>(fsw*(Cout_e/(Cout_c+Cout_e))^2*((((ILpeak+ILvalley)/2-Ioutmax)^2*Vin_eff/Vout/fsw+2*((ILpeak+ILvalley)/2-Ioutmax)*((1-EXP(-(1-Vin_eff/Vout)/tou/fsw))/(1-EXP(-1/tou/fsw))*(ILpeak+ILvalley)/2*tou*(EXP(-1/tou*(Vin_eff/Vout)/fsw)-1))-((1-EXP(-(1-Vin_eff/Vout)/tou/fsw))/(1-EXP(-1/tou/fsw))*(ILpeak+ILvalley)/2)^2*tou/2*(EXP(-2/tou*(1-Vin_eff/Vout/fsw))-1))))</f>
-        <v>10.12313083700141</v>
+        <v>0</v>
       </c>
       <c r="I108" s="54"/>
       <c r="J108" s="54"/>
@@ -6332,7 +6331,7 @@
       </c>
       <c r="C109" s="27">
         <f>IF(Vin_eff&lt;Vout, Vout*Ioutmax/(Vout*Ioutmax+(C102+C103+C104+C105+C106+C107+C108)/1000), Vout*Ioutmax/(Vout*Ioutmax+(C102+C103+C104+C105+C106+C107)/1000))</f>
-        <v>0.87950821150321723</v>
+        <v>0.89420569105332248</v>
       </c>
       <c r="D109" s="78"/>
       <c r="E109" s="82" t="s">
@@ -6385,7 +6384,7 @@
       </c>
       <c r="C111" s="28">
         <f>C110*(C105)/1000</f>
-        <v>8.9617466447579996</v>
+        <v>4.8124557360000004</v>
       </c>
       <c r="D111" s="84" t="s">
         <v>71</v>
@@ -6444,27 +6443,37 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="68">
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="P48:P49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="P44:P45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F12:P12"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F59:P59"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="P36:P37"/>
     <mergeCell ref="G38:G39"/>
@@ -6481,37 +6490,27 @@
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F12:P12"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F59:P59"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F31:P31"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="P44:P45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C22">
@@ -6814,27 +6813,27 @@
       </c>
       <c r="E3" s="5">
         <f t="shared" ref="E3:E43" si="2">20*LOG(1/SQRT((B3/fp)^2+1))</f>
-        <v>-1.166214630894534</v>
+        <v>-0.84999219444037533</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ref="F3:F43" si="3">-180/PI()*ATAN(B3/fp)</f>
-        <v>-29.030918680105291</v>
+        <v>-24.936341268030276</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G43" si="4">20*LOG(SQRT((B3/fz_ESR)^2+1))</f>
-        <v>2.8391667508416694E-3</v>
+        <v>2.095590058354739E-3</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H43" si="5">180/PI()*ATAN(B3/fz_ESR)</f>
-        <v>1.4648807331327123</v>
+        <v>1.2585375509049119</v>
       </c>
       <c r="I3" s="5">
         <f t="shared" ref="I3:I43" si="6">20*LOG(1/SQRT((B3/(1/2/PI()/ESR/(Cout_c*Cout_e/(Cout_c+Cout_e))))^2+1))</f>
-        <v>-8.1895879514464338E-5</v>
+        <v>-4.6315966189868299E-5</v>
       </c>
       <c r="J3" s="15">
         <f t="shared" ref="J3:J43" si="7">-180/PI()*ATAN(B3/(1/2/PI()/(ESR)/(Cout_c*Cout_e/(Cout_c+Cout_e))))</f>
-        <v>-0.24880598323294897</v>
+        <v>-0.18710933484678005</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" ref="K3:K43" si="8">20*LOG(1/SQRT((B3/(1/2/PI()/10000000/(Ccomp+Cp+0.000000000003)))^2+1))</f>
@@ -6846,19 +6845,19 @@
       </c>
       <c r="M3" s="5">
         <f t="shared" ref="M3:M43" si="10">20*LOG(SQRT((B3/fz_comp)^2+1))</f>
-        <v>9.765058594687083E-2</v>
+        <v>4.9269266701834999E-2</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ref="N3:N43" si="11">180/PI()*ATAN(B3/fz_comp)</f>
-        <v>8.5753893094559697</v>
+        <v>6.0968831467209776</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" ref="O3:O43" si="12">20*LOG(1/SQRT((B3/fp_comp2)^2+1))</f>
-        <v>-4.4691255074663112E-3</v>
+        <v>-2.2428965160781501E-3</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" ref="P3:P43" si="13">-180/PI()*ATAN(B3/fp_comp2)</f>
-        <v>-1.8378264983143056</v>
+        <v>-1.3020162482729252</v>
       </c>
       <c r="Q3" s="5">
         <f>20*LOG(1/SQRT((B3/(1/2/PI()/400000/0.0000000000055))^2+1))</f>
@@ -6901,19 +6900,19 @@
       </c>
       <c r="AA3" s="5">
         <f t="shared" ref="AA3:AA43" si="19">IF(Op_mode="Boost", C3+E3+G3+I3+K3+M3+20*LOG(Vout_LP/Ioutmax/2*gm_PS*eff*Vin_LP/Vout_LP*gm_EA*10000000*1.129/Vout)+Q3+S3+U3+Y3, E3+G3+I3+K3+M3+20*LOG(Vout_LP/Ioutmax*gm_PS*gm_EA*10000000*1.129/Vout)+Q3+S3+U3+Y3)</f>
-        <v>48.909183578556664</v>
+        <v>49.176316698986625</v>
       </c>
       <c r="AB3" s="5">
         <f t="shared" ref="AB3:AB43" si="20">IF(Op_mode="Boost", D3+F3+H3+J3+180+L3+N3+R3+T3+V3+X3+Z3, F3+H3+J3+180+L3+N3+R3+T3+V3+Z3)</f>
-        <v>71.393761795997861</v>
+        <v>72.865186511496276</v>
       </c>
       <c r="AC3" s="5">
         <f>AA3+O3</f>
-        <v>48.904714453049195</v>
+        <v>49.174073802470545</v>
       </c>
       <c r="AD3" s="6">
         <f>AB3+P3</f>
-        <v>69.555935297683561</v>
+        <v>71.563170263223356</v>
       </c>
       <c r="AF3" t="s">
         <v>142</v>
@@ -6943,27 +6942,27 @@
       </c>
       <c r="E4" s="5">
         <f t="shared" si="2"/>
-        <v>-1.7266497438594159</v>
+        <v>-1.2795578292716761</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="3"/>
-        <v>-34.942851387365096</v>
+        <v>-30.342340290084447</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="4"/>
-        <v>4.4989161738487092E-3</v>
+        <v>3.3208179028024424E-3</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="5"/>
-        <v>1.843940638287271</v>
+        <v>1.5842559021685452</v>
       </c>
       <c r="I4" s="5">
         <f t="shared" si="6"/>
-        <v>-1.297955061523654E-4</v>
+        <v>-7.3405630577420296E-5</v>
       </c>
       <c r="J4" s="15">
         <f t="shared" si="7"/>
-        <v>-0.31322702333461705</v>
+        <v>-0.23555620665062024</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="8"/>
@@ -6975,19 +6974,19 @@
       </c>
       <c r="M4" s="5">
         <f t="shared" si="10"/>
-        <v>0.15376434084147161</v>
+        <v>7.7829564616657979E-2</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" si="11"/>
-        <v>10.749200740020438</v>
+        <v>7.6586814246160833</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="12"/>
-        <v>-7.0809565702081249E-3</v>
+        <v>-3.5542147358519124E-3</v>
       </c>
       <c r="P4" s="15">
         <f t="shared" si="13"/>
-        <v>-2.3132226312836464</v>
+        <v>-1.6389763598398046</v>
       </c>
       <c r="Q4" s="5">
         <f t="shared" ref="Q4:Q43" si="22">20*LOG(1/SQRT((B4/(1/2/PI()/400000/0.0000000000055))^2+1))</f>
@@ -7030,19 +7029,19 @@
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="19"/>
-        <v>46.40673517315917</v>
+        <v>46.776770603126629</v>
       </c>
       <c r="AB4" s="5">
         <f t="shared" si="20"/>
-        <v>67.800750026245964</v>
+        <v>69.128727888687521</v>
       </c>
       <c r="AC4" s="5">
         <f t="shared" ref="AC4:AC43" si="26">AA4+O4</f>
-        <v>46.399654216588964</v>
+        <v>46.773216388390779</v>
       </c>
       <c r="AD4" s="6">
         <f t="shared" ref="AD4:AD43" si="27">AB4+P4</f>
-        <v>65.487527394962314</v>
+        <v>67.489751528847719</v>
       </c>
       <c r="AF4" t="s">
         <v>140</v>
@@ -7072,27 +7071,27 @@
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>-2.4889603485770695</v>
+        <v>-1.8837414214794721</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="3"/>
-        <v>-41.336119107500579</v>
+        <v>-36.3866926379078</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="4"/>
-        <v>7.1281431136454455E-3</v>
+        <v>5.2619654033267665E-3</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="5"/>
-        <v>2.3209152343649229</v>
+        <v>1.9941628452581581</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="6"/>
-        <v>-2.0571021618499813E-4</v>
+        <v>-1.1633950912566968E-4</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="7"/>
-        <v>-0.39432716170409088</v>
+        <v>-0.29654671724435233</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="8"/>
@@ -7104,19 +7103,19 @@
       </c>
       <c r="M5" s="5">
         <f t="shared" si="10"/>
-        <v>0.24123966419511433</v>
+        <v>0.12271333990836955</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="11"/>
-        <v>13.441343165996987</v>
+        <v>9.6084486995288518</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="12"/>
-        <v>-1.121721502912989E-2</v>
+        <v>-5.6317033516123695E-3</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="13"/>
-        <v>-2.9112501139435016</v>
+        <v>-2.0630199610937758</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="22"/>
@@ -7159,19 +7158,19 @@
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="19"/>
-        <v>43.734627063886307</v>
+        <v>44.21954285969391</v>
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="20"/>
-        <v>64.350653995510541</v>
+        <v>65.238214053988159</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" si="26"/>
-        <v>43.72340984885718</v>
+        <v>44.213911156342299</v>
       </c>
       <c r="AD5" s="6">
         <f t="shared" si="27"/>
-        <v>61.439403881567038</v>
+        <v>63.175194092894387</v>
       </c>
       <c r="AF5" t="s">
         <v>141</v>
@@ -7201,27 +7200,27 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" si="2"/>
-        <v>-3.475904322339268</v>
+        <v>-2.6966311603285265</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="3"/>
-        <v>-47.917454292192353</v>
+        <v>-42.852345851967691</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="4"/>
-        <v>1.1291929231232428E-2</v>
+        <v>8.3367007287283683E-3</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="5"/>
-        <v>2.9209252776704759</v>
+        <v>2.5099097622874709</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="6"/>
-        <v>-3.2602420519675115E-4</v>
+        <v>-1.843842515585277E-4</v>
       </c>
       <c r="J6" s="15">
         <f t="shared" si="7"/>
-        <v>-0.49642390017468252</v>
+        <v>-0.37332824835477829</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="8"/>
@@ -7233,19 +7232,19 @@
       </c>
       <c r="M6" s="5">
         <f t="shared" si="10"/>
-        <v>0.37636762267879204</v>
+        <v>0.19291258362907715</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="11"/>
-        <v>16.745409711091394</v>
+        <v>12.031006846296137</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="12"/>
-        <v>-1.7764684125144575E-2</v>
+        <v>-8.9222666069546097E-3</v>
       </c>
       <c r="P6" s="15">
         <f t="shared" si="13"/>
-        <v>-3.6632045713640933</v>
+        <v>-2.5965322443525567</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" si="22"/>
@@ -7288,19 +7287,19 @@
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="19"/>
-        <v>40.886978655537028</v>
+        <v>41.479983189949188</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="20"/>
-        <v>61.443427737514178</v>
+        <v>61.506213449380475</v>
       </c>
       <c r="AC6" s="5">
         <f t="shared" si="26"/>
-        <v>40.869213971411881</v>
+        <v>41.471060923342236</v>
       </c>
       <c r="AD6" s="6">
         <f t="shared" si="27"/>
-        <v>57.780223166150087</v>
+        <v>58.909681205027915</v>
       </c>
       <c r="AF6" t="s">
         <v>143</v>
@@ -7331,27 +7330,27 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="2"/>
-        <v>-4.6888017078002271</v>
+        <v>-3.7365255310661367</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="3"/>
-        <v>-54.348458199025139</v>
+        <v>-49.42900222342702</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="4"/>
-        <v>1.7882919175285089E-2</v>
+        <v>1.3205373133080189E-2</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="5"/>
-        <v>3.6753664706123015</v>
+        <v>3.1586082473767663</v>
       </c>
       <c r="I7" s="5">
         <f t="shared" si="6"/>
-        <v>-5.1670220012156381E-4</v>
+        <v>-2.9222571684562617E-4</v>
       </c>
       <c r="J7" s="15">
         <f t="shared" si="7"/>
-        <v>-0.624951516553092</v>
+        <v>-0.46998852858980072</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="8"/>
@@ -7363,19 +7362,19 @@
       </c>
       <c r="M7" s="5">
         <f t="shared" si="10"/>
-        <v>0.58227425163088908</v>
+        <v>0.3018975402555818</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="11"/>
-        <v>20.745863378741134</v>
+        <v>15.019019740531272</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="12"/>
-        <v>-2.8121545871987386E-2</v>
+        <v>-1.4132356247397013E-2</v>
       </c>
       <c r="P7" s="15">
         <f t="shared" si="13"/>
-        <v>-4.6080342735704711</v>
+        <v>-3.2675330500447064</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="22"/>
@@ -7418,19 +7417,19 @@
       </c>
       <c r="AA7" s="5">
         <f t="shared" si="19"/>
-        <v>37.88648940949647</v>
+        <v>38.553935805296319</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="20"/>
-        <v>59.521085880467055</v>
+        <v>58.35190298258307</v>
       </c>
       <c r="AC7" s="5">
         <f t="shared" si="26"/>
-        <v>37.85836786362448</v>
+        <v>38.539803449048925</v>
       </c>
       <c r="AD7" s="6">
         <f t="shared" si="27"/>
-        <v>54.913051606896587</v>
+        <v>55.084369932538365</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -7451,27 +7450,27 @@
       </c>
       <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>-6.1070414338203696</v>
+        <v>-4.9993963497532103</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="3"/>
-        <v>-60.327037983991055</v>
+        <v>-55.779420803617278</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="4"/>
-        <v>2.8308487972564904E-2</v>
+        <v>2.0910536078343322E-2</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="5"/>
-        <v>4.6233086075240557</v>
+        <v>3.9741000066223844</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="6"/>
-        <v>-8.1888930864395062E-4</v>
+        <v>-4.631374359428933E-4</v>
       </c>
       <c r="J8" s="15">
         <f t="shared" si="7"/>
-        <v>-0.78674909710578322</v>
+        <v>-0.59167274021366589</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="8"/>
@@ -7483,19 +7482,19 @@
       </c>
       <c r="M8" s="5">
         <f t="shared" si="10"/>
-        <v>0.88984592298257126</v>
+        <v>0.4692130005589803</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="11"/>
-        <v>25.494618137477552</v>
+        <v>18.663734178426562</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="12"/>
-        <v>-4.4485640307421047E-2</v>
+        <v>-2.2377009955544921E-2</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" si="13"/>
-        <v>-5.7938816929523416</v>
+        <v>-4.1109766802597809</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="22"/>
@@ -7538,19 +7537,19 @@
       </c>
       <c r="AA8" s="5">
         <f t="shared" si="19"/>
-        <v>34.786044835468509</v>
+        <v>35.466014797090558</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="20"/>
-        <v>58.963596695083986</v>
+        <v>56.22619767239722</v>
       </c>
       <c r="AC8" s="5">
         <f t="shared" si="26"/>
-        <v>34.741559195161088</v>
+        <v>35.44363778713501</v>
       </c>
       <c r="AD8" s="6">
         <f t="shared" si="27"/>
-        <v>53.169715002131646</v>
+        <v>52.115220992137438</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -7571,27 +7570,27 @@
       </c>
       <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>-7.6953431613474343</v>
+        <v>-6.4603913486577191</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="3"/>
-        <v>-65.649435972875551</v>
+        <v>-61.620215877754923</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="4"/>
-        <v>4.4780805605878604E-2</v>
+        <v>3.3094463055714125E-2</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="5"/>
-        <v>5.8130383826262024</v>
+        <v>4.9984151503464211</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="6"/>
-        <v>-1.2977805334339599E-3</v>
+        <v>-7.3400047925472397E-4</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="7"/>
-        <v>-0.99042202499134602</v>
+        <v>-0.74485636247887776</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="8"/>
@@ -7603,19 +7602,19 @@
       </c>
       <c r="M9" s="5">
         <f t="shared" si="10"/>
-        <v>1.3366594448738649</v>
+        <v>0.72185402354589012</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="11"/>
-        <v>30.977719069353007</v>
+        <v>23.036885471927206</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="12"/>
-        <v>-7.0295337265124241E-2</v>
+        <v>-3.5411929133138093E-2</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="13"/>
-        <v>-7.2796044930525534</v>
+        <v>-5.1702331814248996</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="22"/>
@@ -7658,19 +7657,19 @@
       </c>
       <c r="AA9" s="5">
         <f t="shared" si="19"/>
-        <v>31.660670647336623</v>
+        <v>32.269694476202389</v>
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="20"/>
-        <v>59.994379925478476</v>
+        <v>55.513708853405987</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" si="26"/>
-        <v>31.590375310071497</v>
+        <v>32.234282547069249</v>
       </c>
       <c r="AD9" s="6">
         <f t="shared" si="27"/>
-        <v>52.714775432425924</v>
+        <v>50.343475671981089</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -7691,27 +7690,27 @@
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>-9.4139455045383684</v>
+        <v>-8.0823068871116153</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="3"/>
-        <v>-70.226630834362894</v>
+        <v>-66.77439949320329</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="4"/>
-        <v>7.0760361765588184E-2</v>
+        <v>5.2334940933939561E-2</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="5"/>
-        <v>7.3035779689100222</v>
+        <v>6.2833338293067564</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="6"/>
-        <v>-2.056663823295272E-3</v>
+        <v>-1.1632548715701247E-3</v>
       </c>
       <c r="J10" s="15">
         <f t="shared" si="7"/>
-        <v>-1.2467948284411612</v>
+        <v>-0.93768770793181822</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="8"/>
@@ -7723,19 +7722,19 @@
       </c>
       <c r="M10" s="5">
         <f t="shared" si="10"/>
-        <v>1.9622929695907909</v>
+        <v>1.0943940237331016</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="11"/>
-        <v>37.080986902036699</v>
+        <v>28.161874935282672</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="12"/>
-        <v>-0.1108893308668976</v>
+        <v>-5.5991077393912361E-2</v>
       </c>
       <c r="P10" s="15">
         <f t="shared" si="13"/>
-        <v>-9.1358905866970215</v>
+        <v>-6.4986507340220943</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="22"/>
@@ -7778,19 +7777,19 @@
       </c>
       <c r="AA10" s="5">
         <f t="shared" si="19"/>
-        <v>28.59308957889214</v>
+        <v>29.039297238581284</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="20"/>
-        <v>62.630291149630665</v>
+        <v>56.452273504942326</v>
       </c>
       <c r="AC10" s="5">
         <f t="shared" si="26"/>
-        <v>28.482200248025244</v>
+        <v>28.983306161187372</v>
       </c>
       <c r="AD10" s="6">
         <f t="shared" si="27"/>
-        <v>53.494400562933642</v>
+        <v>49.953622770920234</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -7811,27 +7810,27 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
-        <v>-11.226530931378978</v>
+        <v>-9.825621437864406</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>-74.062842007931451</v>
+        <v>-71.177311405816866</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="4"/>
-        <v>0.11161946588755003</v>
+        <v>8.265550493874449E-2</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="5"/>
-        <v>9.1657897033824209</v>
+        <v>7.8918233434317857</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="6"/>
-        <v>-3.259141218886632E-3</v>
+        <v>-1.8434903401155671E-3</v>
       </c>
       <c r="J11" s="15">
         <f t="shared" si="7"/>
-        <v>-1.5694768217235981</v>
+        <v>-1.1804172498023084</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="8"/>
@@ -7843,19 +7842,19 @@
       </c>
       <c r="M11" s="5">
         <f t="shared" si="10"/>
-        <v>2.7995847335222654</v>
+        <v>1.6262740412480237</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="11"/>
-        <v>43.575174561765493</v>
+        <v>33.978068142393312</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="12"/>
-        <v>-0.17445919597600201</v>
+        <v>-8.8408387177886516E-2</v>
       </c>
       <c r="P11" s="15">
         <f t="shared" si="13"/>
-        <v>-11.445179809243344</v>
+        <v>-8.1609407624162671</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" si="22"/>
@@ -7898,19 +7897,19 @@
       </c>
       <c r="AA11" s="5">
         <f t="shared" si="19"/>
-        <v>25.657702080384098</v>
+        <v>25.857752571554386</v>
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="20"/>
-        <v>66.68847968184194</v>
+        <v>59.091997076555003</v>
       </c>
       <c r="AC11" s="5">
         <f t="shared" si="26"/>
-        <v>25.483242884408096</v>
+        <v>25.7693441843765</v>
       </c>
       <c r="AD11" s="6">
         <f t="shared" si="27"/>
-        <v>55.243299872598598</v>
+        <v>50.931056314138736</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -7931,27 +7930,27 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
-        <v>-13.103978767559406</v>
+        <v>-11.655492810927637</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="3"/>
-        <v>-77.219998496365676</v>
+        <v>-74.849716564754388</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="4"/>
-        <v>0.17559951319777445</v>
+        <v>0.13028091005823522</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="5"/>
-        <v>11.482271862364454</v>
+        <v>9.898848001708398</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="6"/>
-        <v>-5.1642577231102984E-3</v>
+        <v>-2.9213727047091125E-3</v>
       </c>
       <c r="J12" s="15">
         <f t="shared" si="7"/>
-        <v>-1.9755653223350735</v>
+        <v>-1.4859343260861622</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="8"/>
@@ -7963,19 +7962,19 @@
       </c>
       <c r="M12" s="5">
         <f t="shared" si="10"/>
-        <v>3.8645790237159399</v>
+        <v>2.3549708789287123</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="11"/>
-        <v>50.14315427125959</v>
+        <v>40.313104269640547</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="12"/>
-        <v>-0.27334253563813271</v>
+        <v>-0.1392957868955379</v>
       </c>
       <c r="P12" s="15">
         <f t="shared" si="13"/>
-        <v>-14.298941210416814</v>
+        <v>-10.23382658845223</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="22"/>
@@ -8018,19 +8017,19 @@
       </c>
       <c r="AA12" s="5">
         <f t="shared" si="19"/>
-        <v>22.907709102403768</v>
+        <v>22.803511196127186</v>
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="20"/>
-        <v>71.847937939506039</v>
+        <v>63.294377005091135</v>
       </c>
       <c r="AC12" s="5">
         <f t="shared" si="26"/>
-        <v>22.634366566765635</v>
+        <v>22.664215409231648</v>
       </c>
       <c r="AD12" s="6">
         <f t="shared" si="27"/>
-        <v>57.548996729089225</v>
+        <v>53.060550416638904</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -8051,27 +8050,27 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
-        <v>-15.024835467204984</v>
+        <v>-13.544615245774892</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
-        <v>-79.786291883611796</v>
+        <v>-77.86205378336669</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="4"/>
-        <v>0.27510900471827499</v>
+        <v>0.20470831963451566</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="5"/>
-        <v>14.344582851045312</v>
+        <v>12.390561758837491</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="6"/>
-        <v>-8.1819530722204402E-3</v>
+        <v>-4.6291533276179046E-3</v>
       </c>
       <c r="J13" s="15">
         <f t="shared" si="7"/>
-        <v>-2.4865132842878075</v>
+        <v>-1.870435267822274</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="8"/>
@@ -8083,19 +8082,19 @@
       </c>
       <c r="M13" s="5">
         <f t="shared" si="10"/>
-        <v>5.1507295174409196</v>
+        <v>3.3060171090981432</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="11"/>
-        <v>56.449827409177672</v>
+        <v>46.887109086835757</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="12"/>
-        <v>-0.42559126083622106</v>
+        <v>-0.21874504662674554</v>
       </c>
       <c r="P13" s="15">
         <f t="shared" si="13"/>
-        <v>-17.789944209197326</v>
+        <v>-12.80487090726624</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="22"/>
@@ -8138,19 +8137,19 @@
       </c>
       <c r="AA13" s="5">
         <f t="shared" si="19"/>
-        <v>20.370099107820646</v>
+        <v>19.938759035568804</v>
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="20"/>
-        <v>77.74680190668677</v>
+        <v>68.770378608847665</v>
       </c>
       <c r="AC13" s="5">
         <f t="shared" si="26"/>
-        <v>19.944507846984425</v>
+        <v>19.720013988942057</v>
       </c>
       <c r="AD13" s="6">
         <f t="shared" si="27"/>
-        <v>59.95685769748944</v>
+        <v>55.965507701581423</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -8171,27 +8170,27 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>-16.974146984619743</v>
+        <v>-15.473171097401956</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
-        <v>-81.855227888522762</v>
+        <v>-80.305209777583215</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="4"/>
-        <v>0.42829418798605384</v>
+        <v>0.3201157308364832</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="5"/>
-        <v>17.845418220876862</v>
+        <v>15.460129887623049</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="6"/>
-        <v>-1.2960386874367267E-2</v>
+        <v>-7.3344283615605311E-3</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="7"/>
-        <v>-3.1291865220097943</v>
+        <v>-2.3542495186756973</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="8"/>
@@ -8203,19 +8202,19 @@
       </c>
       <c r="M14" s="5">
         <f t="shared" si="10"/>
-        <v>6.6313330930048817</v>
+        <v>4.4843519171299127</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="11"/>
-        <v>62.221744676427583</v>
+        <v>53.363496987280143</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="12"/>
-        <v>-0.65646194836572436</v>
+        <v>-0.3417600769782736</v>
       </c>
       <c r="P14" s="15">
         <f t="shared" si="13"/>
-        <v>-21.996394046497993</v>
+        <v>-15.967593953009899</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="22"/>
@@ -8258,19 +8257,19 @@
       </c>
       <c r="AA14" s="5">
         <f t="shared" si="19"/>
-        <v>18.05075016377096</v>
+        <v>17.302192376477013</v>
       </c>
       <c r="AB14" s="5">
         <f t="shared" si="20"/>
-        <v>84.073545297495187</v>
+        <v>75.154964389367578</v>
       </c>
       <c r="AC14" s="5">
         <f t="shared" si="26"/>
-        <v>17.394288215405236</v>
+        <v>16.960432299498738</v>
       </c>
       <c r="AD14" s="6">
         <f t="shared" si="27"/>
-        <v>62.07715125099719</v>
+        <v>59.187370436357682</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -8291,27 +8290,27 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
-        <v>-18.941857608935759</v>
+        <v>-17.427480557245381</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="3"/>
-        <v>-83.514288516379793</v>
+        <v>-82.272016161516973</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="4"/>
-        <v>0.66052338178186654</v>
+        <v>0.49696514687979643</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" si="5"/>
-        <v>22.062605726637326</v>
+        <v>19.197487752020812</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="6"/>
-        <v>-2.0522940923470529E-2</v>
+        <v>-1.1618551488479701E-2</v>
       </c>
       <c r="J15" s="15">
         <f t="shared" si="7"/>
-        <v>-3.93712529780694</v>
+        <v>-2.9628498609025824</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="8"/>
@@ -8323,19 +8322,19 @@
       </c>
       <c r="M15" s="5">
         <f t="shared" si="10"/>
-        <v>8.2684685993447431</v>
+        <v>5.8724805605898815</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="11"/>
-        <v>67.29475704799512</v>
+        <v>59.42940855105833</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="12"/>
-        <v>-0.99894548037432029</v>
+        <v>-0.52985762043120177</v>
       </c>
       <c r="P15" s="15">
         <f t="shared" si="13"/>
-        <v>-26.955463210899797</v>
+        <v>-19.810064548351363</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="22"/>
@@ -8378,19 +8377,19 @@
       </c>
       <c r="AA15" s="5">
         <f t="shared" si="19"/>
-        <v>15.94634378283828</v>
+        <v>14.910078950306708</v>
       </c>
       <c r="AB15" s="5">
         <f t="shared" si="20"/>
-        <v>90.608084402896452</v>
+        <v>82.094165723110322</v>
       </c>
       <c r="AC15" s="5">
         <f t="shared" si="26"/>
-        <v>14.947398302463959</v>
+        <v>14.380221329875507</v>
       </c>
       <c r="AD15" s="6">
         <f t="shared" si="27"/>
-        <v>63.652621191996658</v>
+        <v>62.284101174758959</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -8411,27 +8410,27 @@
       </c>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
-        <v>-20.921360170726029</v>
+        <v>-19.398402464617426</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
-        <v>-84.840093551505262</v>
+        <v>-83.847701482539875</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="4"/>
-        <v>1.0048930106513392</v>
+        <v>0.76328713212626531</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" si="5"/>
-        <v>27.032481166165802</v>
+        <v>23.66987306573515</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="6"/>
-        <v>-3.2481871231327591E-2</v>
+        <v>-1.8399784222945727E-2</v>
       </c>
       <c r="J16" s="15">
         <f t="shared" si="7"/>
-        <v>-4.9519959518890699</v>
+        <v>-3.7280652025783003</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="8"/>
@@ -8443,19 +8442,19 @@
       </c>
       <c r="M16" s="5">
         <f t="shared" si="10"/>
-        <v>10.022864069275867</v>
+        <v>7.4367508552714909</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="11"/>
-        <v>71.615251413599552</v>
+        <v>64.863360325546537</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="12"/>
-        <v>-1.4918359991524175</v>
+        <v>-0.8122267661957171</v>
       </c>
       <c r="P16" s="15">
         <f t="shared" si="13"/>
-        <v>-32.628281570079082</v>
+        <v>-24.393857566590647</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="22"/>
@@ -8498,19 +8497,19 @@
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="19"/>
-        <v>14.056014741377606</v>
+        <v>12.765335441965131</v>
       </c>
       <c r="AB16" s="5">
         <f t="shared" si="20"/>
-        <v>97.198972537878475</v>
+        <v>89.300796167670967</v>
       </c>
       <c r="AC16" s="5">
         <f t="shared" si="26"/>
-        <v>12.564178742225188</v>
+        <v>11.953108675769414</v>
       </c>
       <c r="AD16" s="6">
         <f t="shared" si="27"/>
-        <v>64.570690967799393</v>
+        <v>64.906938601080327</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -8531,27 +8530,27 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>-22.908377206890119</v>
+        <v>-21.379954744926874</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="3"/>
-        <v>-85.897250742973085</v>
+        <v>-85.106122472185817</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="4"/>
-        <v>1.5002484846389335</v>
+        <v>1.1545330510079603</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>32.714814163341579</v>
+        <v>28.891683257667029</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="6"/>
-        <v>-5.1368300737941283E-2</v>
+        <v>-2.9125671476865553E-2</v>
       </c>
       <c r="J17" s="15">
         <f t="shared" si="7"/>
-        <v>-6.2251514712360194</v>
+        <v>-4.6894910251705335</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="8"/>
@@ -8563,19 +8562,19 @@
       </c>
       <c r="M17" s="5">
         <f t="shared" si="10"/>
-        <v>11.860432386974027</v>
+        <v>9.1374807233161821</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="11"/>
-        <v>75.211160788721301</v>
+        <v>69.559065259186426</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="12"/>
-        <v>-2.173848302043591</v>
+        <v>-1.2252372811326537</v>
       </c>
       <c r="P17" s="15">
         <f t="shared" si="13"/>
-        <v>-38.868544599516113</v>
+        <v>-29.722528449015901</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="22"/>
@@ -8618,19 +8617,19 @@
       </c>
       <c r="AA17" s="5">
         <f t="shared" si="19"/>
-        <v>12.386756655150247</v>
+        <v>10.868754649085755</v>
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="20"/>
-        <v>103.69783327191733</v>
+        <v>96.549395553560672</v>
       </c>
       <c r="AC17" s="5">
         <f t="shared" si="26"/>
-        <v>10.212908353106656</v>
+        <v>9.6435173679531019</v>
       </c>
       <c r="AD17" s="6">
         <f t="shared" si="27"/>
-        <v>64.829288672401219</v>
+        <v>66.826867104544775</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -8651,27 +8650,27 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" si="2"/>
-        <v>-24.900165495481957</v>
+        <v>-23.368274571768293</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="3"/>
-        <v>-86.739014618047023</v>
+        <v>-86.109165616366482</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="4"/>
-        <v>2.1852396232831315</v>
+        <v>1.7103684868299465</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" si="5"/>
-        <v>38.961618855435908</v>
+        <v>34.788703951185305</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="6"/>
-        <v>-8.1134044956996693E-2</v>
+        <v>-4.6070980863842828E-2</v>
       </c>
       <c r="J18" s="15">
         <f t="shared" si="7"/>
-        <v>-7.8190810406292979</v>
+        <v>-5.8960371804279905</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="8"/>
@@ -8683,19 +8682,19 @@
       </c>
       <c r="M18" s="5">
         <f t="shared" si="10"/>
-        <v>13.754728215119084</v>
+        <v>10.937459780987561</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="11"/>
-        <v>78.156407419956281</v>
+        <v>73.508391659194729</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="12"/>
-        <v>-3.0740699523731916</v>
+        <v>-1.8086514957675248</v>
       </c>
       <c r="P18" s="15">
         <f t="shared" si="13"/>
-        <v>-45.417595197357748</v>
+        <v>-35.706108659735818</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" si="22"/>
@@ -8738,19 +8737,19 @@
       </c>
       <c r="AA18" s="5">
         <f t="shared" si="19"/>
-        <v>10.950314013966262</v>
+        <v>9.2251284311883648</v>
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="20"/>
-        <v>109.88895619092401</v>
+        <v>103.62091838779371</v>
       </c>
       <c r="AC18" s="5">
         <f t="shared" si="26"/>
-        <v>7.87624406159307</v>
+        <v>7.4164769354208397</v>
       </c>
       <c r="AD18" s="6">
         <f t="shared" si="27"/>
-        <v>64.471360993566265</v>
+        <v>67.91480972805789</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -8771,27 +8770,27 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="2"/>
-        <v>-26.894976255392308</v>
+        <v>-25.360888684701898</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="3"/>
-        <v>-87.408674983992569</v>
+        <v>-86.907646992730449</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="4"/>
-        <v>3.0887385295283347</v>
+        <v>2.4672969903580002</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="5"/>
-        <v>45.512796645348537</v>
+        <v>41.173199103626644</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="6"/>
-        <v>-0.12789562009070846</v>
+        <v>-7.2792782602653955E-2</v>
       </c>
       <c r="J19" s="15">
         <f t="shared" si="7"/>
-        <v>-9.8082606088547504</v>
+        <v>-7.407435219157489</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="8"/>
@@ -8803,19 +8802,19 @@
       </c>
       <c r="M19" s="5">
         <f t="shared" si="10"/>
-        <v>15.686684850155036</v>
+        <v>12.80634423622044</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="11"/>
-        <v>80.542807960877553</v>
+        <v>76.766533465241167</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="12"/>
-        <v>-4.2024965009947914</v>
+        <v>-2.5976659670313786</v>
       </c>
       <c r="P19" s="15">
         <f t="shared" si="13"/>
-        <v>-51.944987060085737</v>
+        <v>-42.139841549801268</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" si="22"/>
@@ -8858,19 +8857,19 @@
       </c>
       <c r="AA19" s="5">
         <f t="shared" si="19"/>
-        <v>9.753246572490891</v>
+        <v>7.840654827564431</v>
       </c>
       <c r="AB19" s="5">
         <f t="shared" si="20"/>
-        <v>115.45231165097246</v>
+        <v>110.23829299457358</v>
       </c>
       <c r="AC19" s="5">
         <f t="shared" si="26"/>
-        <v>5.5507500714960996</v>
+        <v>5.2429888605330524</v>
       </c>
       <c r="AD19" s="6">
         <f t="shared" si="27"/>
-        <v>63.507324590886725</v>
+        <v>68.098451444772309</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -8891,27 +8890,27 @@
       </c>
       <c r="E20" s="5">
         <f t="shared" si="2"/>
-        <v>-28.891698873036997</v>
+        <v>-27.356222033721433</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" si="3"/>
-        <v>-87.941119416262893</v>
+        <v>-87.542776448221289</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="4"/>
-        <v>4.2204183399254154</v>
+        <v>3.4485316890684019</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="5"/>
-        <v>52.037379880425298</v>
+        <v>47.753936323887366</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="6"/>
-        <v>-0.20099155545873748</v>
+        <v>-0.11481004718087348</v>
       </c>
       <c r="J20" s="15">
         <f t="shared" si="7"/>
-        <v>-12.278439538444632</v>
+        <v>-9.2952966706689786</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="8"/>
@@ -8923,19 +8922,19 @@
       </c>
       <c r="M20" s="5">
         <f t="shared" si="10"/>
-        <v>17.64319729864981</v>
+        <v>14.721531674461525</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="11"/>
-        <v>82.462694595808529</v>
+        <v>79.419229371876781</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="12"/>
-        <v>-5.5463422351579901</v>
+        <v>-3.6127229782850474</v>
       </c>
       <c r="P20" s="15">
         <f t="shared" si="13"/>
-        <v>-58.125561113836483</v>
+        <v>-48.720991588601834</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" si="22"/>
@@ -8978,19 +8977,19 @@
       </c>
       <c r="AA20" s="5">
         <f t="shared" si="19"/>
-        <v>8.7855173700998108</v>
+        <v>6.7136234426479584</v>
       </c>
       <c r="AB20" s="5">
         <f t="shared" si="20"/>
-        <v>119.98305188759079</v>
+        <v>116.03762894293835</v>
       </c>
       <c r="AC20" s="5">
         <f t="shared" si="26"/>
-        <v>3.2391751349418207</v>
+        <v>3.100900464362911</v>
       </c>
       <c r="AD20" s="6">
         <f t="shared" si="27"/>
-        <v>61.857490773754307</v>
+        <v>67.316637354336521</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -9011,27 +9010,27 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="2"/>
-        <v>-30.889629711272278</v>
+        <v>-29.353274993804806</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>-88.364313234547794</v>
+        <v>-88.047716321189114</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="4"/>
-        <v>5.5671800459074721</v>
+        <v>4.6559695443224403</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" si="5"/>
-        <v>58.210892308257563</v>
+        <v>54.19266493870041</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="6"/>
-        <v>-0.31437819665915645</v>
+        <v>-0.1805812667273255</v>
       </c>
       <c r="J21" s="15">
         <f t="shared" si="7"/>
-        <v>-15.322645897921735</v>
+        <v>-11.642894136012767</v>
       </c>
       <c r="K21" s="12">
         <f t="shared" si="8"/>
@@ -9043,19 +9042,19 @@
       </c>
       <c r="M21" s="5">
         <f t="shared" si="10"/>
-        <v>19.615532746662716</v>
+        <v>16.667153606019795</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="11"/>
-        <v>84.00015534092573</v>
+        <v>81.560112192042268</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" si="12"/>
-        <v>-7.0747198673155554</v>
+        <v>-4.8523002555921488</v>
       </c>
       <c r="P21" s="15">
         <f t="shared" si="13"/>
-        <v>-63.713656325856299</v>
+        <v>-55.111205883054247</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" si="22"/>
@@ -9098,19 +9097,19 @@
       </c>
       <c r="AA21" s="5">
         <f t="shared" si="19"/>
-        <v>8.014245284479049</v>
+        <v>5.8248072896504119</v>
       </c>
       <c r="AB21" s="5">
         <f t="shared" si="20"/>
-        <v>123.05715277175808</v>
+        <v>120.59523092858511</v>
       </c>
       <c r="AC21" s="5">
         <f t="shared" si="26"/>
-        <v>0.93952541716349369</v>
+        <v>0.97250703405826311</v>
       </c>
       <c r="AD21" s="6">
         <f t="shared" si="27"/>
-        <v>59.343496445901785</v>
+        <v>65.484025045530871</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -9131,27 +9130,27 @@
       </c>
       <c r="E22" s="5">
         <f t="shared" si="2"/>
-        <v>-32.888323651033325</v>
+        <v>-31.351414507833852</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>-88.700597556946533</v>
+        <v>-88.449024464033542</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="4"/>
-        <v>7.0979416217541669</v>
+        <v>6.069482648290303</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>63.789191777370625</v>
+        <v>60.185471341787498</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="6"/>
-        <v>-0.48823161112777513</v>
+        <v>-0.28282327105843302</v>
       </c>
       <c r="J22" s="15">
         <f t="shared" si="7"/>
-        <v>-19.031254776915976</v>
+        <v>-14.542151707518169</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="8"/>
@@ -9163,19 +9162,19 @@
       </c>
       <c r="M22" s="5">
         <f t="shared" si="10"/>
-        <v>21.597986484213905</v>
+        <v>18.632489695089799</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="11"/>
-        <v>85.227723692391265</v>
+        <v>83.278056213496399</v>
       </c>
       <c r="O22" s="5">
         <f t="shared" si="12"/>
-        <v>-8.7484318270504087</v>
+        <v>-6.2934797773890345</v>
       </c>
       <c r="P22" s="15">
         <f t="shared" si="13"/>
-        <v>-68.577642684821129</v>
+        <v>-61.017925956207073</v>
       </c>
       <c r="Q22" s="5">
         <f t="shared" si="22"/>
@@ -9218,19 +9217,19 @@
       </c>
       <c r="AA22" s="5">
         <f t="shared" si="19"/>
-        <v>7.3855599911338086</v>
+        <v>5.1339217118146561</v>
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="20"/>
-        <v>124.30217419286245</v>
+        <v>123.48946244069526</v>
       </c>
       <c r="AC22" s="5">
         <f t="shared" si="26"/>
-        <v>-1.3628718359166001</v>
+        <v>-1.1595580655743785</v>
       </c>
       <c r="AD22" s="6">
         <f t="shared" si="27"/>
-        <v>55.724531508041323</v>
+        <v>62.47153648448819</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -9251,27 +9250,27 @@
       </c>
       <c r="E23" s="5">
         <f t="shared" si="2"/>
-        <v>-34.887499380592779</v>
+        <v>-33.350240210321857</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>-88.967782646298204</v>
+        <v>-88.767905287055541</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="4"/>
-        <v>8.7734602459661453</v>
+        <v>7.6540318758638932</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>68.642310660567617</v>
+        <v>65.525750618166256</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="6"/>
-        <v>-0.75026229265169686</v>
+        <v>-0.44009119661889978</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="7"/>
-        <v>-23.472948548245835</v>
+        <v>-18.085409930771547</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="8"/>
@@ -9283,19 +9282,19 @@
       </c>
       <c r="M23" s="5">
         <f t="shared" si="10"/>
-        <v>23.586878954398646</v>
+        <v>20.61047502523142</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="11"/>
-        <v>86.206010615318021</v>
+        <v>84.651527093870286</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="12"/>
-        <v>-10.52918468799189</v>
+        <v>-7.8998900340396343</v>
       </c>
       <c r="P23" s="15">
         <f t="shared" si="13"/>
-        <v>-72.690279273920282</v>
+        <v>-66.251537185106955</v>
       </c>
       <c r="Q23" s="5">
         <f t="shared" si="22"/>
@@ -9338,19 +9337,19 @@
       </c>
       <c r="AA23" s="5">
         <f t="shared" si="19"/>
-        <v>6.8314670943989544</v>
+        <v>4.5830650614331976</v>
       </c>
       <c r="AB23" s="5">
         <f t="shared" si="20"/>
-        <v>123.43657023017677</v>
+        <v>124.35294264304459</v>
       </c>
       <c r="AC23" s="5">
         <f t="shared" si="26"/>
-        <v>-3.6977175935929356</v>
+        <v>-3.3168249726064367</v>
       </c>
       <c r="AD23" s="6">
         <f t="shared" si="27"/>
-        <v>50.746290956256487</v>
+        <v>58.101405457937631</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -9371,27 +9370,27 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="2"/>
-        <v>-36.886979220598185</v>
+        <v>-35.349499115274135</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
-        <v>-89.180047875512756</v>
+        <v>-89.021256708396692</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="4"/>
-        <v>10.5555051472962</v>
+        <v>9.3698547816909752</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>72.744298623503113</v>
+        <v>70.121773956691868</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="6"/>
-        <v>-1.1356557355961463</v>
+        <v>-0.67823478989825592</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="7"/>
-        <v>-28.664974602804026</v>
+        <v>-22.348811333072842</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="8"/>
@@ -9403,19 +9402,19 @@
       </c>
       <c r="M24" s="5">
         <f t="shared" si="10"/>
-        <v>25.57985593146913</v>
+        <v>22.596527068655476</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="11"/>
-        <v>86.984701414968256</v>
+        <v>85.747002050126341</v>
       </c>
       <c r="O24" s="5">
         <f t="shared" si="12"/>
-        <v>-12.384928229164377</v>
+        <v>-9.6318466355554992</v>
       </c>
       <c r="P24" s="15">
         <f t="shared" si="13"/>
-        <v>-76.095758677218669</v>
+        <v>-70.736125081471528</v>
       </c>
       <c r="Q24" s="5">
         <f t="shared" si="22"/>
@@ -9458,19 +9457,19 @@
       </c>
       <c r="AA24" s="5">
         <f t="shared" si="19"/>
-        <v>6.276417807845478</v>
+        <v>4.102339630448542</v>
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="20"/>
-        <v>120.27443798602542</v>
+        <v>122.8891683912195</v>
       </c>
       <c r="AC24" s="5">
         <f t="shared" si="26"/>
-        <v>-6.1085104213188988</v>
+        <v>-5.5295070051069573</v>
       </c>
       <c r="AD24" s="6">
         <f t="shared" si="27"/>
-        <v>44.17867930880675</v>
+        <v>52.153043309747972</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -9491,27 +9490,27 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>-38.886650989770921</v>
+        <v>-37.349031450833159</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>-89.348672467574318</v>
+        <v>-89.22252866154669</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="4"/>
-        <v>12.412134859481254</v>
+        <v>11.18048553233705</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" si="5"/>
-        <v>76.140112460196363</v>
+        <v>73.97585867647868</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="6"/>
-        <v>-1.6840215673107004</v>
+        <v>-1.0307993492846055</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="7"/>
-        <v>-34.537365869316979</v>
+        <v>-27.365012105713717</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="8"/>
@@ -9523,19 +9522,19 @@
       </c>
       <c r="M25" s="5">
         <f t="shared" si="10"/>
-        <v>27.575418852891357</v>
+        <v>24.587703398197455</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="11"/>
-        <v>87.604047129132496</v>
+        <v>86.619433588283457</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="12"/>
-        <v>-14.291379673475657</v>
+        <v>-11.453793989898704</v>
       </c>
       <c r="P25" s="15">
         <f t="shared" si="13"/>
-        <v>-78.87536402539827</v>
+        <v>-74.484937632509158</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="22"/>
@@ -9578,19 +9577,19 @@
       </c>
       <c r="AA25" s="5">
         <f t="shared" si="19"/>
-        <v>5.6410076830865625</v>
+        <v>3.6124846582123165</v>
       </c>
       <c r="AB25" s="5">
         <f t="shared" si="20"/>
-        <v>114.71669094463974</v>
+        <v>118.86632118970391</v>
       </c>
       <c r="AC25" s="5">
         <f t="shared" si="26"/>
-        <v>-8.6503719903890932</v>
+        <v>-7.8413093316863876</v>
       </c>
       <c r="AD25" s="6">
         <f t="shared" si="27"/>
-        <v>35.841326919241467</v>
+        <v>44.381383557194752</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -9611,27 +9610,27 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="2"/>
-        <v>-40.886443877355035</v>
+        <v>-39.348736348605485</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
-        <v>-89.482623926439942</v>
+        <v>-89.382418575878134</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="4"/>
-        <v>14.319176809647118</v>
+        <v>13.056608308693429</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="5"/>
-        <v>78.911360169573001</v>
+        <v>77.148916854447819</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="6"/>
-        <v>-2.4321834346788167</v>
+        <v>-1.536836241077556</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="7"/>
-        <v>-40.907124180137153</v>
+        <v>-33.087860750727977</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="8"/>
@@ -9643,19 +9642,19 @@
       </c>
       <c r="M26" s="5">
         <f t="shared" si="10"/>
-        <v>29.572616911271702</v>
+        <v>26.582126800203127</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="11"/>
-        <v>88.09641757310483</v>
+        <v>87.313570615740076</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="12"/>
-        <v>-16.231300575644887</v>
+        <v>-13.337574356286259</v>
       </c>
       <c r="P26" s="15">
         <f t="shared" si="13"/>
-        <v>-81.122376510570859</v>
+        <v>-77.564624568743525</v>
       </c>
       <c r="Q26" s="5">
         <f t="shared" si="22"/>
@@ -9698,19 +9697,19 @@
       </c>
       <c r="AA26" s="5">
         <f t="shared" si="19"/>
-        <v>4.8436721461966226</v>
+        <v>3.0236682565251827</v>
       </c>
       <c r="AB26" s="5">
         <f t="shared" si="20"/>
-        <v>106.74712648488908</v>
+        <v>112.12130499237013</v>
       </c>
       <c r="AC26" s="5">
         <f t="shared" si="26"/>
-        <v>-11.387628429448265</v>
+        <v>-10.313906099761077</v>
       </c>
       <c r="AD26" s="6">
         <f t="shared" si="27"/>
-        <v>25.62474997431822</v>
+        <v>34.556680423626602</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -9731,27 +9730,27 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="2"/>
-        <v>-42.886313193172853</v>
+        <v>-41.348550141369564</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="3"/>
-        <v>-89.589029454593174</v>
+        <v>-89.509430626355424</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="4"/>
-        <v>16.259483668130478</v>
+        <v>14.9765889861881</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="5"/>
-        <v>81.151366268208434</v>
+        <v>79.728785567982143</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="6"/>
-        <v>-3.4040872765307024</v>
+        <v>-2.2346925891679152</v>
       </c>
       <c r="J27" s="15">
         <f t="shared" si="7"/>
-        <v>-47.48642200317807</v>
+        <v>-39.362136050160323</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="8"/>
@@ -9763,19 +9762,19 @@
       </c>
       <c r="M27" s="5">
         <f t="shared" si="10"/>
-        <v>31.570848075039279</v>
+        <v>28.578604516769047</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="11"/>
-        <v>88.487725409249876</v>
+        <v>87.86551618197214</v>
       </c>
       <c r="O27" s="5">
         <f t="shared" si="12"/>
-        <v>-18.192961080932573</v>
+        <v>-15.262611488188274</v>
       </c>
       <c r="P27" s="15">
         <f t="shared" si="13"/>
-        <v>-82.927416901647078</v>
+        <v>-80.06493770339867</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" si="22"/>
@@ -9818,19 +9817,19 @@
       </c>
       <c r="AA27" s="5">
         <f t="shared" si="19"/>
-        <v>3.8023051436686877</v>
+        <v>2.2343246426221532</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" si="20"/>
-        <v>96.43709108567171</v>
+        <v>102.59618593942321</v>
       </c>
       <c r="AC27" s="5">
         <f t="shared" si="26"/>
-        <v>-14.390655937263885</v>
+        <v>-13.02828684556612</v>
       </c>
       <c r="AD27" s="6">
         <f t="shared" si="27"/>
-        <v>13.509674184024632</v>
+        <v>22.531248236024538</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -9851,27 +9850,27 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>-44.886230735004879</v>
+        <v>-43.348432648438418</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="3"/>
-        <v>-89.673552426084811</v>
+        <v>-89.610323381340038</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="4"/>
-        <v>18.221393258809631</v>
+        <v>16.925330902859173</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="5"/>
-        <v>82.950647803667493</v>
+        <v>81.809009707827826</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="6"/>
-        <v>-4.6025721341228829</v>
+        <v>-3.1522915100439142</v>
       </c>
       <c r="J28" s="15">
         <f t="shared" si="7"/>
-        <v>-53.937364971267662</v>
+        <v>-45.921648924465956</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="8"/>
@@ -9883,19 +9882,19 @@
       </c>
       <c r="M28" s="5">
         <f t="shared" si="10"/>
-        <v>33.569731644029631</v>
+        <v>30.576380635404448</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="11"/>
-        <v>88.798654648145146</v>
+        <v>88.304229768127243</v>
       </c>
       <c r="O28" s="5">
         <f t="shared" si="12"/>
-        <v>-20.168595178806925</v>
+        <v>-17.214638566700483</v>
       </c>
       <c r="P28" s="15">
         <f t="shared" si="13"/>
-        <v>-84.371513799025635</v>
+        <v>-82.079092267893046</v>
       </c>
       <c r="Q28" s="5">
         <f t="shared" si="22"/>
@@ -9938,19 +9937,19 @@
       </c>
       <c r="AA28" s="5">
         <f t="shared" si="19"/>
-        <v>2.4368354840779731</v>
+        <v>1.135500830147762</v>
       </c>
       <c r="AB28" s="5">
         <f t="shared" si="20"/>
-        <v>83.953021718616071</v>
+        <v>90.39590383430496</v>
       </c>
       <c r="AC28" s="5">
         <f t="shared" si="26"/>
-        <v>-17.73175969472895</v>
+        <v>-16.07913773655272</v>
       </c>
       <c r="AD28" s="6">
         <f t="shared" si="27"/>
-        <v>-0.41849208040956398</v>
+        <v>8.3168115664119142</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -9971,27 +9970,27 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="2"/>
-        <v>-46.886178706612618</v>
+        <v>-45.348358513775068</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="3"/>
-        <v>-89.740692439380524</v>
+        <v>-89.690467098126305</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="4"/>
-        <v>20.197186797082406</v>
+        <v>18.89267516120124</v>
       </c>
       <c r="H29" s="5">
         <f t="shared" si="5"/>
-        <v>84.390070240106056</v>
+        <v>83.477300581435699</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="6"/>
-        <v>-6.0083100697211078</v>
+        <v>-4.2979125036970842</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="7"/>
-        <v>-59.953150613554072</v>
+        <v>-52.433385323070794</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="8"/>
@@ -10003,19 +10002,19 @@
       </c>
       <c r="M29" s="5">
         <f t="shared" si="10"/>
-        <v>35.569027075985943</v>
+        <v>32.574976874960079</v>
       </c>
       <c r="N29" s="5">
         <f t="shared" si="11"/>
-        <v>89.045685859280894</v>
+        <v>88.652856674493208</v>
       </c>
       <c r="O29" s="5">
         <f t="shared" si="12"/>
-        <v>-22.153150696505332</v>
+        <v>-19.184094749131759</v>
       </c>
       <c r="P29" s="15">
         <f t="shared" si="13"/>
-        <v>-85.523825971108337</v>
+        <v>-83.69340116558881</v>
       </c>
       <c r="Q29" s="5">
         <f t="shared" si="22"/>
@@ -10058,19 +10057,19 @@
       </c>
       <c r="AA29" s="5">
         <f t="shared" si="19"/>
-        <v>0.67268021554787172</v>
+        <v>-0.37766386249758371</v>
       </c>
       <c r="AB29" s="5">
         <f t="shared" si="20"/>
-        <v>69.560991189465355</v>
+        <v>75.825382977744809</v>
       </c>
       <c r="AC29" s="5">
         <f t="shared" si="26"/>
-        <v>-21.480470480957461</v>
+        <v>-19.561758611629344</v>
       </c>
       <c r="AD29" s="6">
         <f t="shared" si="27"/>
-        <v>-15.962834781642982</v>
+        <v>-7.868018187844001</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -10091,27 +10090,27 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="2"/>
-        <v>-48.886145878595705</v>
+        <v>-47.348311737313587</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="3"/>
-        <v>-89.794024164136317</v>
+        <v>-89.754128393729701</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="4"/>
-        <v>22.181843838229298</v>
+        <v>20.871943718694745</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
-        <v>85.538618214915559</v>
+        <v>84.810573200423718</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="6"/>
-        <v>-7.5866705637362966</v>
+        <v>-5.6571232539332073</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="7"/>
-        <v>-65.322541966263984</v>
+        <v>-58.575984053198397</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="8"/>
@@ -10123,19 +10122,19 @@
       </c>
       <c r="M30" s="5">
         <f t="shared" si="10"/>
-        <v>37.568582464783773</v>
+        <v>34.574090928479933</v>
       </c>
       <c r="N30" s="5">
         <f t="shared" si="11"/>
-        <v>89.241935463809398</v>
+        <v>88.9298532496219</v>
       </c>
       <c r="O30" s="5">
         <f t="shared" si="12"/>
-        <v>-24.143377550791953</v>
+        <v>-21.164711785057676</v>
       </c>
       <c r="P30" s="15">
         <f t="shared" si="13"/>
-        <v>-86.441778732800074</v>
+        <v>-84.983022441408991</v>
       </c>
       <c r="Q30" s="5">
         <f t="shared" si="22"/>
@@ -10178,19 +10177,19 @@
       </c>
       <c r="AA30" s="5">
         <f t="shared" si="19"/>
-        <v>-1.5553834438124974</v>
+        <v>-2.3923936485656818</v>
       </c>
       <c r="AB30" s="5">
         <f t="shared" si="20"/>
-        <v>53.627157417856672</v>
+        <v>59.373483872649537</v>
       </c>
       <c r="AC30" s="5">
         <f t="shared" si="26"/>
-        <v>-25.698760994604452</v>
+        <v>-23.557105433623359</v>
       </c>
       <c r="AD30" s="6">
         <f t="shared" si="27"/>
-        <v>-32.814621314943402</v>
+        <v>-25.609538568759454</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -10211,27 +10210,27 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>-50.886125165389629</v>
+        <v>-49.348282223102437</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="3"/>
-        <v>-89.836387317791377</v>
+        <v>-89.804696798601881</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="4"/>
-        <v>24.172135121283826</v>
+        <v>22.858811958942511</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>86.453555013464253</v>
+        <v>85.873731288328742</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="6"/>
-        <v>-9.2979003930596651</v>
+        <v>-7.1980298759539849</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="7"/>
-        <v>-69.949353296772387</v>
+        <v>-64.111905892020985</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="8"/>
@@ -10243,19 +10242,19 @@
       </c>
       <c r="M31" s="5">
         <f t="shared" si="10"/>
-        <v>39.568301910658391</v>
+        <v>36.573531841035646</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" si="11"/>
-        <v>89.397834968438175</v>
+        <v>89.149915741844453</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" si="12"/>
-        <v>-26.137199777384087</v>
+        <v>-23.152437300067369</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="13"/>
-        <v>-87.172263333195787</v>
+        <v>-86.01111377085536</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" si="22"/>
@@ -10298,19 +10297,19 @@
       </c>
       <c r="AA31" s="5">
         <f t="shared" si="19"/>
-        <v>-4.2986212930309913</v>
+        <v>-4.9690010656021721</v>
       </c>
       <c r="AB31" s="5">
         <f t="shared" si="20"/>
-        <v>36.616263804355221</v>
+        <v>41.657658776566883</v>
       </c>
       <c r="AC31" s="5">
         <f t="shared" si="26"/>
-        <v>-30.435821070415077</v>
+        <v>-28.12143836566954</v>
       </c>
       <c r="AD31" s="6">
         <f t="shared" si="27"/>
-        <v>-50.555999528840566</v>
+        <v>-44.353454994288477</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -10331,27 +10330,27 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>-52.886112096189294</v>
+        <v>-51.348263600790929</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="3"/>
-        <v>-89.87003769659772</v>
+        <v>-89.8448649310604</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="4"/>
-        <v>26.165998148767859</v>
+        <v>24.850505901720123</v>
       </c>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
-        <v>87.181630837122881</v>
+        <v>86.720296890075019</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="6"/>
-        <v>-11.105296326693443</v>
+        <v>-8.8812174403610751</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="7"/>
-        <v>-73.832742816400682</v>
+        <v>-68.918293471934717</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="8"/>
@@ -10363,19 +10362,19 @@
       </c>
       <c r="M32" s="5">
         <f t="shared" si="10"/>
-        <v>41.568124883646725</v>
+        <v>38.57317904366996</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="11"/>
-        <v>89.521676814300193</v>
+        <v>89.324735786723906</v>
       </c>
       <c r="O32" s="5">
         <f t="shared" si="12"/>
-        <v>-28.133297339423802</v>
+        <v>-25.144674735628708</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" si="13"/>
-        <v>-87.753175871782346</v>
+        <v>-86.829625704445391</v>
       </c>
       <c r="Q32" s="5">
         <f t="shared" si="22"/>
@@ -10418,19 +10417,19 @@
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="19"/>
-        <v>-7.5877439419949209</v>
+        <v>-8.1362546472886699</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="20"/>
-        <v>19.08162579799896</v>
+        <v>23.362972933378082</v>
       </c>
       <c r="AC32" s="5">
         <f t="shared" si="26"/>
-        <v>-35.721041281418721</v>
+        <v>-33.280929382917378</v>
       </c>
       <c r="AD32" s="6">
         <f t="shared" si="27"/>
-        <v>-68.671550073783379</v>
+        <v>-63.466652771067309</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -10451,27 +10450,27 @@
       </c>
       <c r="E33" s="5">
         <f t="shared" si="2"/>
-        <v>-54.886103850061126</v>
+        <v>-53.348251850865644</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="3"/>
-        <v>-89.896767207620314</v>
+        <v>-89.876771723413142</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="4"/>
-        <v>28.162121514053879</v>
+        <v>26.845256948418164</v>
       </c>
       <c r="H33" s="5">
         <f t="shared" si="5"/>
-        <v>87.760623411650457</v>
+        <v>87.393789086016142</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="6"/>
-        <v>-12.979224045733202</v>
+        <v>-10.668736556918287</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="7"/>
-        <v>-77.031917062270949</v>
+        <v>-72.974656636683108</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="8"/>
@@ -10483,19 +10482,19 @@
       </c>
       <c r="M33" s="5">
         <f t="shared" si="10"/>
-        <v>43.568013183440584</v>
+        <v>40.572956428833905</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="11"/>
-        <v>89.620051130846107</v>
+        <v>89.463609404494392</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="12"/>
-        <v>-30.13083326204319</v>
+        <v>-27.139769739927409</v>
       </c>
       <c r="P33" s="15">
         <f t="shared" si="13"/>
-        <v>-88.214946533854786</v>
+        <v>-87.480733610974085</v>
       </c>
       <c r="Q33" s="5">
         <f t="shared" si="22"/>
@@ -10538,19 +10537,19 @@
       </c>
       <c r="AA33" s="5">
         <f t="shared" si="19"/>
-        <v>-11.424858513390985</v>
+        <v>-11.88844034562298</v>
       </c>
       <c r="AB33" s="5">
         <f t="shared" si="20"/>
-        <v>1.6249951222700618</v>
+        <v>5.1789749800790448</v>
       </c>
       <c r="AC33" s="5">
         <f t="shared" si="26"/>
-        <v>-41.555691775434177</v>
+        <v>-39.028210085550391</v>
       </c>
       <c r="AD33" s="6">
         <f t="shared" si="27"/>
-        <v>-86.589951411584721</v>
+        <v>-82.301758630895037</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -10571,27 +10570,27 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>-56.886098647097938</v>
+        <v>-55.348244437147621</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="3"/>
-        <v>-89.917999245517009</v>
+        <v>-89.902116244892426</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="4"/>
-        <v>30.159673741226158</v>
+        <v>28.841941815626985</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="5"/>
-        <v>88.220865671357245</v>
+        <v>87.929286149310158</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="6"/>
-        <v>-14.897752551813479</v>
+        <v>-12.529115940655732</v>
       </c>
       <c r="J34" s="15">
         <f t="shared" si="7"/>
-        <v>-79.634105289428732</v>
+        <v>-76.329151928550999</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="8"/>
@@ -10603,19 +10602,19 @@
       </c>
       <c r="M34" s="5">
         <f t="shared" si="10"/>
-        <v>45.567942703896904</v>
+        <v>42.572815962496556</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="11"/>
-        <v>89.698194252856453</v>
+        <v>89.573925211537144</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="12"/>
-        <v>-32.129277814670075</v>
+        <v>-29.136672044037248</v>
       </c>
       <c r="P34" s="15">
         <f t="shared" si="13"/>
-        <v>-88.581912325190856</v>
+        <v>-87.998399638528525</v>
       </c>
       <c r="Q34" s="5">
         <f t="shared" si="22"/>
@@ -10658,19 +10657,19 @@
       </c>
       <c r="AA34" s="5">
         <f t="shared" si="19"/>
-        <v>-15.778719033532902</v>
+        <v>-16.185086879424382</v>
       </c>
       <c r="AB34" s="5">
         <f t="shared" si="20"/>
-        <v>-15.186631429415662</v>
+        <v>-12.281643631279742</v>
       </c>
       <c r="AC34" s="5">
         <f t="shared" si="26"/>
-        <v>-47.907996848202977</v>
+        <v>-45.32175892346163</v>
       </c>
       <c r="AD34" s="6">
         <f t="shared" si="27"/>
-        <v>-103.76854375460653</v>
+        <v>-100.28004326980826</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -10691,27 +10690,27 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>-58.886095364246898</v>
+        <v>-57.348239759401281</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="3"/>
-        <v>-89.934864469033386</v>
+        <v>-89.922248141681948</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="4"/>
-        <v>32.158128590824681</v>
+        <v>30.839848805437164</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="5"/>
-        <v>88.58661574190792</v>
+        <v>88.354909231319141</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="6"/>
-        <v>-16.845549830367577</v>
+        <v>-14.438654288475437</v>
       </c>
       <c r="J35" s="15">
         <f t="shared" si="7"/>
-        <v>-81.732901324431296</v>
+        <v>-79.064724090410067</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="8"/>
@@ -10723,19 +10722,19 @@
       </c>
       <c r="M35" s="5">
         <f t="shared" si="10"/>
-        <v>47.567898233722666</v>
+        <v>44.572727331891684</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="11"/>
-        <v>89.760266355378988</v>
+        <v>89.661554463087114</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="12"/>
-        <v>-34.128296107007223</v>
+        <v>-31.134716392595621</v>
       </c>
       <c r="P35" s="15">
         <f t="shared" si="13"/>
-        <v>-88.873488036750132</v>
+        <v>-88.409833617656275</v>
       </c>
       <c r="Q35" s="5">
         <f t="shared" si="22"/>
@@ -10778,19 +10777,19 @@
       </c>
       <c r="AA35" s="5">
         <f t="shared" si="19"/>
-        <v>-20.588812386057874</v>
+        <v>-20.957511926538622</v>
       </c>
       <c r="AB35" s="5">
         <f t="shared" si="20"/>
-        <v>-30.923279151858374</v>
+        <v>-28.57290399336636</v>
       </c>
       <c r="AC35" s="5">
         <f t="shared" si="26"/>
-        <v>-54.717108493065098</v>
+        <v>-52.092228319134243</v>
       </c>
       <c r="AD35" s="6">
         <f t="shared" si="27"/>
-        <v>-119.7967671886085</v>
+        <v>-116.98273761102263</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -10811,27 +10810,27 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>-60.886093292906637</v>
+        <v>-59.348236807940268</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="3"/>
-        <v>-89.948261000443935</v>
+        <v>-89.938239489644886</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="4"/>
-        <v>34.157153383895754</v>
+        <v>32.838527686092817</v>
       </c>
       <c r="H36" s="5">
         <f t="shared" si="5"/>
-        <v>88.877224935267989</v>
+        <v>88.69312543195872</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="6"/>
-        <v>-18.812286325413375</v>
+        <v>-16.380591841185815</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="7"/>
-        <v>-83.416384997219623</v>
+        <v>-81.274850299760672</v>
       </c>
       <c r="K36" s="12">
         <f t="shared" si="8"/>
@@ -10843,19 +10842,19 @@
       </c>
       <c r="M36" s="5">
         <f t="shared" si="10"/>
-        <v>49.567870174705313</v>
+        <v>46.572671408829905</v>
       </c>
       <c r="N36" s="5">
         <f t="shared" si="11"/>
-        <v>89.809572387157189</v>
+        <v>89.731162000190906</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="12"/>
-        <v>-36.127676577147049</v>
+        <v>-33.133482006683494</v>
       </c>
       <c r="P36" s="15">
         <f t="shared" si="13"/>
-        <v>-89.105137188729188</v>
+        <v>-88.736766258165687</v>
       </c>
       <c r="Q36" s="5">
         <f t="shared" si="22"/>
@@ -10898,19 +10897,19 @@
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="19"/>
-        <v>-25.778698852878755</v>
+        <v>-26.122972347363167</v>
       </c>
       <c r="AB36" s="5">
         <f t="shared" si="20"/>
-        <v>-45.364143571914894</v>
+        <v>-43.475097253932447</v>
       </c>
       <c r="AC36" s="5">
         <f t="shared" si="26"/>
-        <v>-61.906375430025804</v>
+        <v>-59.25645435404666</v>
       </c>
       <c r="AD36" s="6">
         <f t="shared" si="27"/>
-        <v>-134.4692807606441</v>
+        <v>-132.21186351209815</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -10931,27 +10930,27 @@
       </c>
       <c r="E37" s="5">
         <f t="shared" si="2"/>
-        <v>-62.886091985978815</v>
+        <v>-61.348234945693257</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="3"/>
-        <v>-89.9589022476937</v>
+        <v>-89.950941875821954</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="4"/>
-        <v>36.156537957228991</v>
+        <v>34.837693909310318</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="5"/>
-        <v>89.108105934796654</v>
+        <v>88.961846193353381</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="6"/>
-        <v>-20.79116662260434</v>
+        <v>-18.343553434325194</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="7"/>
-        <v>-84.761952530190314</v>
+        <v>-83.049586713441315</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="8"/>
@@ -10963,19 +10962,19 @@
       </c>
       <c r="M37" s="5">
         <f t="shared" si="10"/>
-        <v>51.567852470568987</v>
+        <v>48.572636123392847</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="11"/>
-        <v>89.848737764906133</v>
+        <v>89.786453807846172</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="12"/>
-        <v>-38.127285634753875</v>
+        <v>-35.132702981265624</v>
       </c>
       <c r="P37" s="15">
         <f t="shared" si="13"/>
-        <v>-89.28916387325269</v>
+        <v>-88.99651776980555</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" si="22"/>
@@ -11018,19 +11017,19 @@
       </c>
       <c r="AA37" s="5">
         <f t="shared" si="19"/>
-        <v>-31.272996628984934</v>
+        <v>-31.601586795515054</v>
       </c>
       <c r="AB37" s="5">
         <f t="shared" si="20"/>
-        <v>-58.506449374908897</v>
+        <v>-56.994666884791386</v>
       </c>
       <c r="AC37" s="5">
         <f t="shared" si="26"/>
-        <v>-69.400282263738802</v>
+        <v>-66.734289776780685</v>
       </c>
       <c r="AD37" s="6">
         <f t="shared" si="27"/>
-        <v>-147.7956132481616</v>
+        <v>-145.99118465459694</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -11051,27 +11050,27 @@
       </c>
       <c r="E38" s="5">
         <f t="shared" si="2"/>
-        <v>-64.88609116136287</v>
+        <v>-63.348233770694399</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="3"/>
-        <v>-89.967354892893226</v>
+        <v>-89.961031743308439</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="4"/>
-        <v>38.156149604376225</v>
+        <v>36.837167749351607</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="5"/>
-        <v>89.29152224365815</v>
+        <v>89.175331815255674</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="6"/>
-        <v>-22.77778795149441</v>
+        <v>-20.320020197515525</v>
       </c>
       <c r="J38" s="15">
         <f t="shared" si="7"/>
-        <v>-85.834992463335027</v>
+        <v>-84.469093333670131</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="8"/>
@@ -11083,19 +11082,19 @@
       </c>
       <c r="M38" s="5">
         <f t="shared" si="10"/>
-        <v>53.567841299976983</v>
+        <v>50.572613859639652</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="11"/>
-        <v>89.879848032802144</v>
+        <v>89.830373940296113</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="12"/>
-        <v>-40.127038948671071</v>
+        <v>-37.132211377546483</v>
       </c>
       <c r="P38" s="15">
         <f t="shared" si="13"/>
-        <v>-89.43535210322257</v>
+        <v>-89.202875653996969</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="22"/>
@@ -11138,19 +11137,19 @@
       </c>
       <c r="AA38" s="5">
         <f t="shared" si="19"/>
-        <v>-37.011243291761502</v>
+        <v>-37.329827442476073</v>
       </c>
       <c r="AB38" s="5">
         <f t="shared" si="20"/>
-        <v>-70.516681558960713</v>
+        <v>-69.310123800619536</v>
       </c>
       <c r="AC38" s="5">
         <f t="shared" si="26"/>
-        <v>-77.138282240432574</v>
+        <v>-74.462038820022556</v>
       </c>
       <c r="AD38" s="6">
         <f t="shared" si="27"/>
-        <v>-159.95203366218328</v>
+        <v>-158.51299945461651</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -11171,27 +11170,27 @@
       </c>
       <c r="E39" s="5">
         <f t="shared" si="2"/>
-        <v>-66.886090641065309</v>
+        <v>-65.348233029320085</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" si="3"/>
-        <v>-89.974069068663965</v>
+        <v>-89.969046411690556</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="4"/>
-        <v>40.155904552422086</v>
+        <v>38.836835732059043</v>
       </c>
       <c r="H39" s="5">
         <f t="shared" si="5"/>
-        <v>89.437225529481452</v>
+        <v>89.344926082990639</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="6"/>
-        <v>-24.769325325544031</v>
+        <v>-22.305105846425132</v>
       </c>
       <c r="J39" s="15">
         <f t="shared" si="7"/>
-        <v>-86.689466084975592</v>
+        <v>-85.601607523689182</v>
       </c>
       <c r="K39" s="12">
         <f t="shared" si="8"/>
@@ -11203,19 +11202,19 @@
       </c>
       <c r="M39" s="5">
         <f t="shared" si="10"/>
-        <v>55.567834251795134</v>
+        <v>52.572599812102332</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="11"/>
-        <v>89.904559848367015</v>
+        <v>89.865261086158199</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="12"/>
-        <v>-42.126883293065319</v>
+        <v>-39.131901167934416</v>
       </c>
       <c r="P39" s="15">
         <f t="shared" si="13"/>
-        <v>-89.551478874401397</v>
+        <v>-89.366806549246888</v>
       </c>
       <c r="Q39" s="5">
         <f t="shared" si="22"/>
@@ -11258,19 +11257,19 @@
       </c>
       <c r="AA39" s="5">
         <f t="shared" si="19"/>
-        <v>-42.95535947897497</v>
+        <v>-43.267585648166701</v>
       </c>
       <c r="AB39" s="5">
         <f t="shared" si="20"/>
-        <v>-81.653271343841851</v>
+        <v>-80.69198833428166</v>
       </c>
       <c r="AC39" s="5">
         <f t="shared" si="26"/>
-        <v>-85.082242772040289</v>
+        <v>-82.399486816101117</v>
       </c>
       <c r="AD39" s="6">
         <f t="shared" si="27"/>
-        <v>-171.20475021824325</v>
+        <v>-170.05879488352855</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -11291,27 +11290,27 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="2"/>
-        <v>-68.886090312779714</v>
+        <v>-67.348232561544449</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="3"/>
-        <v>-89.979402328568099</v>
+        <v>-89.975412689957025</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="4"/>
-        <v>42.155749927977062</v>
+        <v>40.836626230248861</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="5"/>
-        <v>89.55296704293427</v>
+        <v>89.479647924648802</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="6"/>
-        <v>-26.763977272321192</v>
+        <v>-24.295669105222149</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="7"/>
-        <v>-87.36926941107383</v>
+        <v>-86.503699603314672</v>
       </c>
       <c r="K40" s="12">
         <f t="shared" si="8"/>
@@ -11323,19 +11322,19 @@
       </c>
       <c r="M40" s="5">
         <f t="shared" si="10"/>
-        <v>57.56782980468715</v>
+        <v>54.572590948682127</v>
       </c>
       <c r="N40" s="5">
         <f t="shared" si="11"/>
-        <v>89.924189166955173</v>
+        <v>89.892973003609669</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="12"/>
-        <v>-44.126785078147101</v>
+        <v>-41.131705427499867</v>
       </c>
       <c r="P40" s="15">
         <f t="shared" si="13"/>
-        <v>-89.643724320355403</v>
+        <v>-89.497029007528837</v>
       </c>
       <c r="Q40" s="5">
         <f t="shared" si="22"/>
@@ -11378,19 +11377,19 @@
       </c>
       <c r="AA40" s="5">
         <f t="shared" si="19"/>
-        <v>-49.091034467110518</v>
+        <v>-49.399231102509461</v>
       </c>
       <c r="AB40" s="5">
         <f t="shared" si="20"/>
-        <v>-92.185949018616526</v>
+        <v>-91.420924853877267</v>
       </c>
       <c r="AC40" s="5">
         <f t="shared" si="26"/>
-        <v>-93.217819545257612</v>
+        <v>-90.530936530009328</v>
       </c>
       <c r="AD40" s="6">
         <f t="shared" si="27"/>
-        <v>-181.82967333897193</v>
+        <v>-180.91795386140609</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -11411,27 +11410,27 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="2"/>
-        <v>-70.886090105645479</v>
+        <v>-69.348232266397943</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="3"/>
-        <v>-89.983638687751949</v>
+        <v>-89.980469604974516</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="4"/>
-        <v>44.155652363715141</v>
+        <v>42.836494038342835</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="5"/>
-        <v>89.644906441283666</v>
+        <v>89.586665460799722</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="6"/>
-        <v>-28.760599487116728</v>
+        <v>-26.289704356253424</v>
       </c>
       <c r="J41" s="15">
         <f t="shared" si="7"/>
-        <v>-87.90979446587157</v>
+        <v>-87.221517632860198</v>
       </c>
       <c r="K41" s="12">
         <f t="shared" si="8"/>
@@ -11443,19 +11442,19 @@
       </c>
       <c r="M41" s="5">
         <f t="shared" si="10"/>
-        <v>59.567826998749361</v>
+        <v>56.572585356232722</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="11"/>
-        <v>89.939781301845613</v>
+        <v>89.914985398398073</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="12"/>
-        <v>-46.126723107580247</v>
+        <v>-43.131581919095595</v>
       </c>
       <c r="P41" s="15">
         <f t="shared" si="13"/>
-        <v>-89.716998822238708</v>
+        <v>-89.600472152046763</v>
       </c>
       <c r="Q41" s="5">
         <f t="shared" si="22"/>
@@ -11498,19 +11497,19 @@
       </c>
       <c r="AA41" s="5">
         <f t="shared" si="19"/>
-        <v>-55.424273961555173</v>
+        <v>-55.729920959333285</v>
       </c>
       <c r="AB41" s="5">
         <f t="shared" si="20"/>
-        <v>-102.32359308362923</v>
+        <v>-101.71518405177191</v>
       </c>
       <c r="AC41" s="5">
         <f t="shared" si="26"/>
-        <v>-101.55099706913542</v>
+        <v>-98.86150287842888</v>
       </c>
       <c r="AD41" s="6">
         <f t="shared" si="27"/>
-        <v>-192.04059190586793</v>
+        <v>-191.31565620381866</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -11531,27 +11530,27 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="2"/>
-        <v>-72.886089974952625</v>
+        <v>-71.348232080173076</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="3"/>
-        <v>-89.98700374759386</v>
+        <v>-89.984486455574199</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="4"/>
-        <v>46.155590803699781</v>
+        <v>44.836410628818498</v>
       </c>
       <c r="H42" s="5">
         <f t="shared" si="5"/>
-        <v>89.717937827623274</v>
+        <v>89.671674603209183</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="6"/>
-        <v>-30.758466896203274</v>
+        <v>-28.285936634567822</v>
       </c>
       <c r="J42" s="15">
         <f t="shared" si="7"/>
-        <v>-88.339418902869753</v>
+        <v>-87.792334515073321</v>
       </c>
       <c r="K42" s="12">
         <f t="shared" si="8"/>
@@ -11563,19 +11562,19 @@
       </c>
       <c r="M42" s="5">
         <f t="shared" si="10"/>
-        <v>61.567825228321375</v>
+        <v>58.572581827632007</v>
       </c>
       <c r="N42" s="5">
         <f t="shared" si="11"/>
-        <v>89.95216658129776</v>
+        <v>89.932470483294722</v>
       </c>
       <c r="O42" s="5">
         <f t="shared" si="12"/>
-        <v>-48.126684006340966</v>
+        <v>-45.131503988753536</v>
       </c>
       <c r="P42" s="15">
         <f t="shared" si="13"/>
-        <v>-89.775203499399453</v>
+        <v>-89.682641851569727</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" si="22"/>
@@ -11618,19 +11617,19 @@
       </c>
       <c r="AA42" s="5">
         <f t="shared" si="19"/>
-        <v>-61.973582838923015</v>
+        <v>-62.277618258078654</v>
       </c>
       <c r="AB42" s="5">
         <f t="shared" si="20"/>
-        <v>-112.15829640524082</v>
+        <v>-111.67465404784186</v>
       </c>
       <c r="AC42" s="5">
         <f t="shared" si="26"/>
-        <v>-110.10026684526397</v>
+        <v>-107.4091222468322</v>
       </c>
       <c r="AD42" s="6">
         <f t="shared" si="27"/>
-        <v>-201.93349990464026</v>
+        <v>-201.35729589941158</v>
       </c>
     </row>
     <row r="43" spans="1:30" ht="13" thickBot="1">
@@ -11651,27 +11650,27 @@
       </c>
       <c r="E43" s="8">
         <f t="shared" si="2"/>
-        <v>-74.886089892491</v>
+        <v>-73.348231962673125</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="3"/>
-        <v>-89.989676709702863</v>
+        <v>-89.987677153530811</v>
       </c>
       <c r="G43" s="8">
         <f t="shared" si="4"/>
-        <v>48.155551961506966</v>
+        <v>46.836358000142233</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="5"/>
-        <v>89.775949384582177</v>
+        <v>89.739200813678082</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="6"/>
-        <v>-32.757120783284449</v>
+        <v>-30.283557679952619</v>
       </c>
       <c r="J43" s="16">
         <f t="shared" si="7"/>
-        <v>-88.680817247788056</v>
+        <v>-88.246068697055179</v>
       </c>
       <c r="K43" s="13">
         <f t="shared" si="8"/>
@@ -11683,19 +11682,19 @@
       </c>
       <c r="M43" s="8">
         <f t="shared" si="10"/>
-        <v>63.567824111256456</v>
+        <v>60.572579601233976</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="11"/>
-        <v>89.962004561703779</v>
+        <v>89.946359389037482</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="12"/>
-        <v>-50.126659334945714</v>
+        <v>-47.13145481731231</v>
       </c>
       <c r="P43" s="16">
         <f t="shared" si="13"/>
-        <v>-89.821437454379563</v>
+        <v>-89.747912510790457</v>
       </c>
       <c r="Q43" s="8">
         <f t="shared" si="22"/>
@@ -11738,19 +11737,19 @@
       </c>
       <c r="AA43" s="5">
         <f t="shared" si="19"/>
-        <v>-68.758365950037955</v>
+        <v>-69.061383388275459</v>
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="20"/>
-        <v>-121.64042661056683</v>
+        <v>-121.25607224723231</v>
       </c>
       <c r="AC43" s="8">
         <f t="shared" si="26"/>
-        <v>-118.88502528498367</v>
+        <v>-116.19283820558778</v>
       </c>
       <c r="AD43" s="17">
         <f t="shared" si="27"/>
-        <v>-211.46186406494638</v>
+        <v>-211.00398475802277</v>
       </c>
     </row>
     <row r="44" spans="1:30" ht="13" thickTop="1"/>
